--- a/doc/import/import/2018/201807/TEN SP.xlsx
+++ b/doc/import/import/2018/201807/TEN SP.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28770" windowHeight="11655" activeTab="7"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="28770" windowHeight="11655" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TEN SP" sheetId="1" r:id="rId1"/>
     <sheet name="ton dk" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="8" r:id="rId4"/>
-    <sheet name="SANPHAM" sheetId="3" r:id="rId5"/>
-    <sheet name="PhanNhomLoai" sheetId="4" r:id="rId6"/>
-    <sheet name="PhieuNhap" sheetId="5" r:id="rId7"/>
-    <sheet name="PhieuNhapChiTiet" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId5"/>
+    <sheet name="SANPHAM" sheetId="3" r:id="rId6"/>
+    <sheet name="PhanNhomLoai" sheetId="4" r:id="rId7"/>
+    <sheet name="PhieuNhap" sheetId="5" r:id="rId8"/>
+    <sheet name="PhieuNhapChiTiet" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TEN SP'!$A$5:$G$30</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="273">
   <si>
     <t>BẢNG TỔNG HỢP CHI TIẾT THUỐC - HOÙA CHAÁT KHO MIEÀN THAÙNG 07/ 2018</t>
   </si>
@@ -1091,7 +1092,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1376,6 +1377,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1420,6 +1430,33 @@
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1705,7 +1742,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H30"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -3249,13 +3286,13 @@
       <c r="E2" s="95"/>
     </row>
     <row r="3" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="126"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129"/>
       <c r="F3" s="2" t="s">
         <v>109</v>
       </c>
@@ -4001,10 +4038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -5537,30 +5574,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
     </row>
     <row r="2" spans="1:16" s="6" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="134" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="101" t="s">
@@ -5572,31 +5609,31 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="132" t="s">
+      <c r="F2" s="135" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="133" t="s">
+      <c r="G2" s="136" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="135" t="s">
+      <c r="J2" s="138" t="s">
         <v>150</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="138"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="141"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A3" s="130"/>
-      <c r="B3" s="131"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="134"/>
       <c r="C3" s="102" t="s">
         <v>114</v>
       </c>
@@ -5606,13 +5643,13 @@
       <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="132"/>
-      <c r="G3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="137"/>
       <c r="H3" s="10"/>
       <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="136"/>
+      <c r="J3" s="139"/>
       <c r="K3" s="9" t="s">
         <v>10</v>
       </c>
@@ -6724,7 +6761,7 @@
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
     </row>
-    <row r="33" spans="1:16" ht="15.75">
+    <row r="33" spans="1:19" ht="15.75">
       <c r="A33" s="11"/>
       <c r="B33" s="59" t="s">
         <v>34</v>
@@ -6748,7 +6785,7 @@
       <c r="O33" s="47"/>
       <c r="P33" s="47"/>
     </row>
-    <row r="34" spans="1:16" ht="17.45" customHeight="1">
+    <row r="34" spans="1:19" ht="17.45" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="12" t="s">
         <v>35</v>
@@ -6770,7 +6807,7 @@
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
     </row>
-    <row r="35" spans="1:16" ht="17.45" customHeight="1">
+    <row r="35" spans="1:19" ht="17.45" customHeight="1">
       <c r="A35" s="11">
         <v>1</v>
       </c>
@@ -6809,8 +6846,15 @@
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
-    </row>
-    <row r="36" spans="1:16" ht="17.45" customHeight="1">
+      <c r="R35" s="1">
+        <v>39</v>
+      </c>
+      <c r="S35" s="1">
+        <f>R35*J35</f>
+        <v>877500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="17.45" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="49" t="s">
         <v>95</v>
@@ -6844,7 +6888,7 @@
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
     </row>
-    <row r="37" spans="1:16" ht="17.45" customHeight="1">
+    <row r="37" spans="1:19" ht="17.45" customHeight="1">
       <c r="A37" s="11">
         <v>4</v>
       </c>
@@ -6884,7 +6928,7 @@
       <c r="O37" s="19"/>
       <c r="P37" s="19"/>
     </row>
-    <row r="38" spans="1:16" ht="17.45" customHeight="1">
+    <row r="38" spans="1:19" ht="17.45" customHeight="1">
       <c r="A38" s="11">
         <v>8</v>
       </c>
@@ -6925,7 +6969,7 @@
       <c r="O38" s="19"/>
       <c r="P38" s="19"/>
     </row>
-    <row r="39" spans="1:16" ht="17.45" customHeight="1">
+    <row r="39" spans="1:19" ht="17.45" customHeight="1">
       <c r="A39" s="11"/>
       <c r="B39" s="22" t="s">
         <v>67</v>
@@ -6960,7 +7004,7 @@
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
     </row>
-    <row r="40" spans="1:16" ht="17.45" customHeight="1">
+    <row r="40" spans="1:19" ht="17.45" customHeight="1">
       <c r="A40" s="11">
         <v>9</v>
       </c>
@@ -7000,7 +7044,7 @@
       <c r="O40" s="19"/>
       <c r="P40" s="19"/>
     </row>
-    <row r="41" spans="1:16" s="48" customFormat="1" ht="16.5" customHeight="1">
+    <row r="41" spans="1:19" s="48" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="11">
         <v>17</v>
       </c>
@@ -7040,7 +7084,7 @@
       <c r="O41" s="26"/>
       <c r="P41" s="26"/>
     </row>
-    <row r="42" spans="1:16" s="48" customFormat="1" ht="16.5" customHeight="1">
+    <row r="42" spans="1:19" s="48" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="11">
         <v>18</v>
       </c>
@@ -7080,7 +7124,7 @@
       <c r="O42" s="26"/>
       <c r="P42" s="26"/>
     </row>
-    <row r="43" spans="1:16" s="48" customFormat="1" ht="16.5" customHeight="1">
+    <row r="43" spans="1:19" s="48" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="11">
         <v>19</v>
       </c>
@@ -7120,7 +7164,7 @@
       <c r="O43" s="26"/>
       <c r="P43" s="26"/>
     </row>
-    <row r="44" spans="1:16" ht="14.25">
+    <row r="44" spans="1:19" ht="14.25">
       <c r="A44" s="11">
         <v>22</v>
       </c>
@@ -7160,7 +7204,7 @@
       <c r="O44" s="19"/>
       <c r="P44" s="19"/>
     </row>
-    <row r="45" spans="1:16" ht="14.25">
+    <row r="45" spans="1:19" ht="14.25">
       <c r="A45" s="11">
         <v>23</v>
       </c>
@@ -7200,7 +7244,7 @@
       <c r="O45" s="19"/>
       <c r="P45" s="19"/>
     </row>
-    <row r="46" spans="1:16" ht="14.25">
+    <row r="46" spans="1:19" ht="14.25">
       <c r="A46" s="11">
         <v>25</v>
       </c>
@@ -7240,7 +7284,7 @@
       <c r="O46" s="19"/>
       <c r="P46" s="19"/>
     </row>
-    <row r="47" spans="1:16" s="48" customFormat="1" ht="17.45" customHeight="1">
+    <row r="47" spans="1:19" s="48" customFormat="1" ht="17.45" customHeight="1">
       <c r="A47" s="44"/>
       <c r="B47" s="59" t="s">
         <v>34</v>
@@ -7266,7 +7310,7 @@
       <c r="O47" s="47"/>
       <c r="P47" s="47"/>
     </row>
-    <row r="48" spans="1:16" s="38" customFormat="1" ht="17.45" customHeight="1">
+    <row r="48" spans="1:19" s="38" customFormat="1" ht="17.45" customHeight="1">
       <c r="A48" s="63"/>
       <c r="B48" s="64" t="s">
         <v>45</v>
@@ -7737,10 +7781,3659 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="I50" sqref="I5:I50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="4.125" style="85" customWidth="1"/>
+    <col min="2" max="2" width="28" style="86" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="86" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="86" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="87" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="72" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="88" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="85" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" style="85" customWidth="1"/>
+    <col min="12" max="16" width="6.25" style="43" hidden="1" customWidth="1"/>
+    <col min="17" max="175" width="9" style="1"/>
+    <col min="176" max="176" width="4.125" style="1" customWidth="1"/>
+    <col min="177" max="177" width="28" style="1" customWidth="1"/>
+    <col min="178" max="178" width="5.625" style="1" customWidth="1"/>
+    <col min="179" max="179" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="5.375" style="1" customWidth="1"/>
+    <col min="181" max="181" width="6.5" style="1" customWidth="1"/>
+    <col min="182" max="182" width="11" style="1" customWidth="1"/>
+    <col min="183" max="183" width="4.75" style="1" customWidth="1"/>
+    <col min="184" max="188" width="5.625" style="1" customWidth="1"/>
+    <col min="189" max="189" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="11.75" style="1" customWidth="1"/>
+    <col min="191" max="191" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="11.75" style="1" customWidth="1"/>
+    <col min="193" max="206" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="207" max="218" width="6.25" style="1" customWidth="1"/>
+    <col min="219" max="219" width="5.875" style="1" customWidth="1"/>
+    <col min="220" max="221" width="6.25" style="1" customWidth="1"/>
+    <col min="222" max="267" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="268" max="268" width="8.5" style="1" customWidth="1"/>
+    <col min="269" max="269" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="273" max="431" width="9" style="1"/>
+    <col min="432" max="432" width="4.125" style="1" customWidth="1"/>
+    <col min="433" max="433" width="28" style="1" customWidth="1"/>
+    <col min="434" max="434" width="5.625" style="1" customWidth="1"/>
+    <col min="435" max="435" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="436" max="436" width="5.375" style="1" customWidth="1"/>
+    <col min="437" max="437" width="6.5" style="1" customWidth="1"/>
+    <col min="438" max="438" width="11" style="1" customWidth="1"/>
+    <col min="439" max="439" width="4.75" style="1" customWidth="1"/>
+    <col min="440" max="444" width="5.625" style="1" customWidth="1"/>
+    <col min="445" max="445" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="446" max="446" width="11.75" style="1" customWidth="1"/>
+    <col min="447" max="447" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="448" max="448" width="11.75" style="1" customWidth="1"/>
+    <col min="449" max="462" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="463" max="474" width="6.25" style="1" customWidth="1"/>
+    <col min="475" max="475" width="5.875" style="1" customWidth="1"/>
+    <col min="476" max="477" width="6.25" style="1" customWidth="1"/>
+    <col min="478" max="523" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="524" max="524" width="8.5" style="1" customWidth="1"/>
+    <col min="525" max="525" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="526" max="526" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="528" max="528" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="529" max="687" width="9" style="1"/>
+    <col min="688" max="688" width="4.125" style="1" customWidth="1"/>
+    <col min="689" max="689" width="28" style="1" customWidth="1"/>
+    <col min="690" max="690" width="5.625" style="1" customWidth="1"/>
+    <col min="691" max="691" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="692" max="692" width="5.375" style="1" customWidth="1"/>
+    <col min="693" max="693" width="6.5" style="1" customWidth="1"/>
+    <col min="694" max="694" width="11" style="1" customWidth="1"/>
+    <col min="695" max="695" width="4.75" style="1" customWidth="1"/>
+    <col min="696" max="700" width="5.625" style="1" customWidth="1"/>
+    <col min="701" max="701" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="702" max="702" width="11.75" style="1" customWidth="1"/>
+    <col min="703" max="703" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="704" max="704" width="11.75" style="1" customWidth="1"/>
+    <col min="705" max="718" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="719" max="730" width="6.25" style="1" customWidth="1"/>
+    <col min="731" max="731" width="5.875" style="1" customWidth="1"/>
+    <col min="732" max="733" width="6.25" style="1" customWidth="1"/>
+    <col min="734" max="779" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="780" max="780" width="8.5" style="1" customWidth="1"/>
+    <col min="781" max="781" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="782" max="782" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="784" max="784" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="785" max="943" width="9" style="1"/>
+    <col min="944" max="944" width="4.125" style="1" customWidth="1"/>
+    <col min="945" max="945" width="28" style="1" customWidth="1"/>
+    <col min="946" max="946" width="5.625" style="1" customWidth="1"/>
+    <col min="947" max="947" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="948" max="948" width="5.375" style="1" customWidth="1"/>
+    <col min="949" max="949" width="6.5" style="1" customWidth="1"/>
+    <col min="950" max="950" width="11" style="1" customWidth="1"/>
+    <col min="951" max="951" width="4.75" style="1" customWidth="1"/>
+    <col min="952" max="956" width="5.625" style="1" customWidth="1"/>
+    <col min="957" max="957" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="958" max="958" width="11.75" style="1" customWidth="1"/>
+    <col min="959" max="959" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="960" max="960" width="11.75" style="1" customWidth="1"/>
+    <col min="961" max="974" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="975" max="986" width="6.25" style="1" customWidth="1"/>
+    <col min="987" max="987" width="5.875" style="1" customWidth="1"/>
+    <col min="988" max="989" width="6.25" style="1" customWidth="1"/>
+    <col min="990" max="1035" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="1036" max="1036" width="8.5" style="1" customWidth="1"/>
+    <col min="1037" max="1037" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1038" max="1038" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1039" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1040" max="1040" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1041" max="1199" width="9" style="1"/>
+    <col min="1200" max="1200" width="4.125" style="1" customWidth="1"/>
+    <col min="1201" max="1201" width="28" style="1" customWidth="1"/>
+    <col min="1202" max="1202" width="5.625" style="1" customWidth="1"/>
+    <col min="1203" max="1203" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1204" max="1204" width="5.375" style="1" customWidth="1"/>
+    <col min="1205" max="1205" width="6.5" style="1" customWidth="1"/>
+    <col min="1206" max="1206" width="11" style="1" customWidth="1"/>
+    <col min="1207" max="1207" width="4.75" style="1" customWidth="1"/>
+    <col min="1208" max="1212" width="5.625" style="1" customWidth="1"/>
+    <col min="1213" max="1213" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1214" max="1214" width="11.75" style="1" customWidth="1"/>
+    <col min="1215" max="1215" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1216" max="1216" width="11.75" style="1" customWidth="1"/>
+    <col min="1217" max="1230" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="1231" max="1242" width="6.25" style="1" customWidth="1"/>
+    <col min="1243" max="1243" width="5.875" style="1" customWidth="1"/>
+    <col min="1244" max="1245" width="6.25" style="1" customWidth="1"/>
+    <col min="1246" max="1291" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="1292" max="1292" width="8.5" style="1" customWidth="1"/>
+    <col min="1293" max="1293" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1294" max="1294" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1295" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1296" max="1296" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1297" max="1455" width="9" style="1"/>
+    <col min="1456" max="1456" width="4.125" style="1" customWidth="1"/>
+    <col min="1457" max="1457" width="28" style="1" customWidth="1"/>
+    <col min="1458" max="1458" width="5.625" style="1" customWidth="1"/>
+    <col min="1459" max="1459" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1460" max="1460" width="5.375" style="1" customWidth="1"/>
+    <col min="1461" max="1461" width="6.5" style="1" customWidth="1"/>
+    <col min="1462" max="1462" width="11" style="1" customWidth="1"/>
+    <col min="1463" max="1463" width="4.75" style="1" customWidth="1"/>
+    <col min="1464" max="1468" width="5.625" style="1" customWidth="1"/>
+    <col min="1469" max="1469" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1470" max="1470" width="11.75" style="1" customWidth="1"/>
+    <col min="1471" max="1471" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1472" max="1472" width="11.75" style="1" customWidth="1"/>
+    <col min="1473" max="1486" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="1487" max="1498" width="6.25" style="1" customWidth="1"/>
+    <col min="1499" max="1499" width="5.875" style="1" customWidth="1"/>
+    <col min="1500" max="1501" width="6.25" style="1" customWidth="1"/>
+    <col min="1502" max="1547" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="1548" max="1548" width="8.5" style="1" customWidth="1"/>
+    <col min="1549" max="1549" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1550" max="1550" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1551" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1552" max="1552" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1553" max="1711" width="9" style="1"/>
+    <col min="1712" max="1712" width="4.125" style="1" customWidth="1"/>
+    <col min="1713" max="1713" width="28" style="1" customWidth="1"/>
+    <col min="1714" max="1714" width="5.625" style="1" customWidth="1"/>
+    <col min="1715" max="1715" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1716" max="1716" width="5.375" style="1" customWidth="1"/>
+    <col min="1717" max="1717" width="6.5" style="1" customWidth="1"/>
+    <col min="1718" max="1718" width="11" style="1" customWidth="1"/>
+    <col min="1719" max="1719" width="4.75" style="1" customWidth="1"/>
+    <col min="1720" max="1724" width="5.625" style="1" customWidth="1"/>
+    <col min="1725" max="1725" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1726" max="1726" width="11.75" style="1" customWidth="1"/>
+    <col min="1727" max="1727" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1728" max="1728" width="11.75" style="1" customWidth="1"/>
+    <col min="1729" max="1742" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="1743" max="1754" width="6.25" style="1" customWidth="1"/>
+    <col min="1755" max="1755" width="5.875" style="1" customWidth="1"/>
+    <col min="1756" max="1757" width="6.25" style="1" customWidth="1"/>
+    <col min="1758" max="1803" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="1804" max="1804" width="8.5" style="1" customWidth="1"/>
+    <col min="1805" max="1805" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1806" max="1806" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="1807" max="1807" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1808" max="1808" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1809" max="1967" width="9" style="1"/>
+    <col min="1968" max="1968" width="4.125" style="1" customWidth="1"/>
+    <col min="1969" max="1969" width="28" style="1" customWidth="1"/>
+    <col min="1970" max="1970" width="5.625" style="1" customWidth="1"/>
+    <col min="1971" max="1971" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1972" max="1972" width="5.375" style="1" customWidth="1"/>
+    <col min="1973" max="1973" width="6.5" style="1" customWidth="1"/>
+    <col min="1974" max="1974" width="11" style="1" customWidth="1"/>
+    <col min="1975" max="1975" width="4.75" style="1" customWidth="1"/>
+    <col min="1976" max="1980" width="5.625" style="1" customWidth="1"/>
+    <col min="1981" max="1981" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1982" max="1982" width="11.75" style="1" customWidth="1"/>
+    <col min="1983" max="1983" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1984" max="1984" width="11.75" style="1" customWidth="1"/>
+    <col min="1985" max="1998" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="1999" max="2010" width="6.25" style="1" customWidth="1"/>
+    <col min="2011" max="2011" width="5.875" style="1" customWidth="1"/>
+    <col min="2012" max="2013" width="6.25" style="1" customWidth="1"/>
+    <col min="2014" max="2059" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="2060" max="2060" width="8.5" style="1" customWidth="1"/>
+    <col min="2061" max="2061" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2062" max="2062" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2063" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2064" max="2064" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2065" max="2223" width="9" style="1"/>
+    <col min="2224" max="2224" width="4.125" style="1" customWidth="1"/>
+    <col min="2225" max="2225" width="28" style="1" customWidth="1"/>
+    <col min="2226" max="2226" width="5.625" style="1" customWidth="1"/>
+    <col min="2227" max="2227" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2228" max="2228" width="5.375" style="1" customWidth="1"/>
+    <col min="2229" max="2229" width="6.5" style="1" customWidth="1"/>
+    <col min="2230" max="2230" width="11" style="1" customWidth="1"/>
+    <col min="2231" max="2231" width="4.75" style="1" customWidth="1"/>
+    <col min="2232" max="2236" width="5.625" style="1" customWidth="1"/>
+    <col min="2237" max="2237" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2238" max="2238" width="11.75" style="1" customWidth="1"/>
+    <col min="2239" max="2239" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2240" max="2240" width="11.75" style="1" customWidth="1"/>
+    <col min="2241" max="2254" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="2255" max="2266" width="6.25" style="1" customWidth="1"/>
+    <col min="2267" max="2267" width="5.875" style="1" customWidth="1"/>
+    <col min="2268" max="2269" width="6.25" style="1" customWidth="1"/>
+    <col min="2270" max="2315" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="2316" max="2316" width="8.5" style="1" customWidth="1"/>
+    <col min="2317" max="2317" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2318" max="2318" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2319" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2320" max="2320" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2321" max="2479" width="9" style="1"/>
+    <col min="2480" max="2480" width="4.125" style="1" customWidth="1"/>
+    <col min="2481" max="2481" width="28" style="1" customWidth="1"/>
+    <col min="2482" max="2482" width="5.625" style="1" customWidth="1"/>
+    <col min="2483" max="2483" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2484" max="2484" width="5.375" style="1" customWidth="1"/>
+    <col min="2485" max="2485" width="6.5" style="1" customWidth="1"/>
+    <col min="2486" max="2486" width="11" style="1" customWidth="1"/>
+    <col min="2487" max="2487" width="4.75" style="1" customWidth="1"/>
+    <col min="2488" max="2492" width="5.625" style="1" customWidth="1"/>
+    <col min="2493" max="2493" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2494" max="2494" width="11.75" style="1" customWidth="1"/>
+    <col min="2495" max="2495" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2496" max="2496" width="11.75" style="1" customWidth="1"/>
+    <col min="2497" max="2510" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="2511" max="2522" width="6.25" style="1" customWidth="1"/>
+    <col min="2523" max="2523" width="5.875" style="1" customWidth="1"/>
+    <col min="2524" max="2525" width="6.25" style="1" customWidth="1"/>
+    <col min="2526" max="2571" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="2572" max="2572" width="8.5" style="1" customWidth="1"/>
+    <col min="2573" max="2573" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2574" max="2574" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2575" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2576" max="2576" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2577" max="2735" width="9" style="1"/>
+    <col min="2736" max="2736" width="4.125" style="1" customWidth="1"/>
+    <col min="2737" max="2737" width="28" style="1" customWidth="1"/>
+    <col min="2738" max="2738" width="5.625" style="1" customWidth="1"/>
+    <col min="2739" max="2739" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2740" max="2740" width="5.375" style="1" customWidth="1"/>
+    <col min="2741" max="2741" width="6.5" style="1" customWidth="1"/>
+    <col min="2742" max="2742" width="11" style="1" customWidth="1"/>
+    <col min="2743" max="2743" width="4.75" style="1" customWidth="1"/>
+    <col min="2744" max="2748" width="5.625" style="1" customWidth="1"/>
+    <col min="2749" max="2749" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2750" max="2750" width="11.75" style="1" customWidth="1"/>
+    <col min="2751" max="2751" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2752" max="2752" width="11.75" style="1" customWidth="1"/>
+    <col min="2753" max="2766" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="2767" max="2778" width="6.25" style="1" customWidth="1"/>
+    <col min="2779" max="2779" width="5.875" style="1" customWidth="1"/>
+    <col min="2780" max="2781" width="6.25" style="1" customWidth="1"/>
+    <col min="2782" max="2827" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="2828" max="2828" width="8.5" style="1" customWidth="1"/>
+    <col min="2829" max="2829" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2830" max="2830" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="2831" max="2831" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2832" max="2832" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2833" max="2991" width="9" style="1"/>
+    <col min="2992" max="2992" width="4.125" style="1" customWidth="1"/>
+    <col min="2993" max="2993" width="28" style="1" customWidth="1"/>
+    <col min="2994" max="2994" width="5.625" style="1" customWidth="1"/>
+    <col min="2995" max="2995" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2996" max="2996" width="5.375" style="1" customWidth="1"/>
+    <col min="2997" max="2997" width="6.5" style="1" customWidth="1"/>
+    <col min="2998" max="2998" width="11" style="1" customWidth="1"/>
+    <col min="2999" max="2999" width="4.75" style="1" customWidth="1"/>
+    <col min="3000" max="3004" width="5.625" style="1" customWidth="1"/>
+    <col min="3005" max="3005" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3006" max="3006" width="11.75" style="1" customWidth="1"/>
+    <col min="3007" max="3007" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3008" max="3008" width="11.75" style="1" customWidth="1"/>
+    <col min="3009" max="3022" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="3023" max="3034" width="6.25" style="1" customWidth="1"/>
+    <col min="3035" max="3035" width="5.875" style="1" customWidth="1"/>
+    <col min="3036" max="3037" width="6.25" style="1" customWidth="1"/>
+    <col min="3038" max="3083" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="3084" max="3084" width="8.5" style="1" customWidth="1"/>
+    <col min="3085" max="3085" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3086" max="3086" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3087" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3088" max="3088" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3089" max="3247" width="9" style="1"/>
+    <col min="3248" max="3248" width="4.125" style="1" customWidth="1"/>
+    <col min="3249" max="3249" width="28" style="1" customWidth="1"/>
+    <col min="3250" max="3250" width="5.625" style="1" customWidth="1"/>
+    <col min="3251" max="3251" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3252" max="3252" width="5.375" style="1" customWidth="1"/>
+    <col min="3253" max="3253" width="6.5" style="1" customWidth="1"/>
+    <col min="3254" max="3254" width="11" style="1" customWidth="1"/>
+    <col min="3255" max="3255" width="4.75" style="1" customWidth="1"/>
+    <col min="3256" max="3260" width="5.625" style="1" customWidth="1"/>
+    <col min="3261" max="3261" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3262" max="3262" width="11.75" style="1" customWidth="1"/>
+    <col min="3263" max="3263" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3264" max="3264" width="11.75" style="1" customWidth="1"/>
+    <col min="3265" max="3278" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="3279" max="3290" width="6.25" style="1" customWidth="1"/>
+    <col min="3291" max="3291" width="5.875" style="1" customWidth="1"/>
+    <col min="3292" max="3293" width="6.25" style="1" customWidth="1"/>
+    <col min="3294" max="3339" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="3340" max="3340" width="8.5" style="1" customWidth="1"/>
+    <col min="3341" max="3341" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3342" max="3342" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3343" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3344" max="3344" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3345" max="3503" width="9" style="1"/>
+    <col min="3504" max="3504" width="4.125" style="1" customWidth="1"/>
+    <col min="3505" max="3505" width="28" style="1" customWidth="1"/>
+    <col min="3506" max="3506" width="5.625" style="1" customWidth="1"/>
+    <col min="3507" max="3507" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3508" max="3508" width="5.375" style="1" customWidth="1"/>
+    <col min="3509" max="3509" width="6.5" style="1" customWidth="1"/>
+    <col min="3510" max="3510" width="11" style="1" customWidth="1"/>
+    <col min="3511" max="3511" width="4.75" style="1" customWidth="1"/>
+    <col min="3512" max="3516" width="5.625" style="1" customWidth="1"/>
+    <col min="3517" max="3517" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3518" max="3518" width="11.75" style="1" customWidth="1"/>
+    <col min="3519" max="3519" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3520" max="3520" width="11.75" style="1" customWidth="1"/>
+    <col min="3521" max="3534" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="3535" max="3546" width="6.25" style="1" customWidth="1"/>
+    <col min="3547" max="3547" width="5.875" style="1" customWidth="1"/>
+    <col min="3548" max="3549" width="6.25" style="1" customWidth="1"/>
+    <col min="3550" max="3595" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="3596" max="3596" width="8.5" style="1" customWidth="1"/>
+    <col min="3597" max="3597" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3598" max="3598" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3599" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3600" max="3600" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3601" max="3759" width="9" style="1"/>
+    <col min="3760" max="3760" width="4.125" style="1" customWidth="1"/>
+    <col min="3761" max="3761" width="28" style="1" customWidth="1"/>
+    <col min="3762" max="3762" width="5.625" style="1" customWidth="1"/>
+    <col min="3763" max="3763" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3764" max="3764" width="5.375" style="1" customWidth="1"/>
+    <col min="3765" max="3765" width="6.5" style="1" customWidth="1"/>
+    <col min="3766" max="3766" width="11" style="1" customWidth="1"/>
+    <col min="3767" max="3767" width="4.75" style="1" customWidth="1"/>
+    <col min="3768" max="3772" width="5.625" style="1" customWidth="1"/>
+    <col min="3773" max="3773" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3774" max="3774" width="11.75" style="1" customWidth="1"/>
+    <col min="3775" max="3775" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3776" max="3776" width="11.75" style="1" customWidth="1"/>
+    <col min="3777" max="3790" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="3791" max="3802" width="6.25" style="1" customWidth="1"/>
+    <col min="3803" max="3803" width="5.875" style="1" customWidth="1"/>
+    <col min="3804" max="3805" width="6.25" style="1" customWidth="1"/>
+    <col min="3806" max="3851" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="3852" max="3852" width="8.5" style="1" customWidth="1"/>
+    <col min="3853" max="3853" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3854" max="3854" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="3855" max="3855" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3856" max="3856" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3857" max="4015" width="9" style="1"/>
+    <col min="4016" max="4016" width="4.125" style="1" customWidth="1"/>
+    <col min="4017" max="4017" width="28" style="1" customWidth="1"/>
+    <col min="4018" max="4018" width="5.625" style="1" customWidth="1"/>
+    <col min="4019" max="4019" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4020" max="4020" width="5.375" style="1" customWidth="1"/>
+    <col min="4021" max="4021" width="6.5" style="1" customWidth="1"/>
+    <col min="4022" max="4022" width="11" style="1" customWidth="1"/>
+    <col min="4023" max="4023" width="4.75" style="1" customWidth="1"/>
+    <col min="4024" max="4028" width="5.625" style="1" customWidth="1"/>
+    <col min="4029" max="4029" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4030" max="4030" width="11.75" style="1" customWidth="1"/>
+    <col min="4031" max="4031" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4032" max="4032" width="11.75" style="1" customWidth="1"/>
+    <col min="4033" max="4046" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="4047" max="4058" width="6.25" style="1" customWidth="1"/>
+    <col min="4059" max="4059" width="5.875" style="1" customWidth="1"/>
+    <col min="4060" max="4061" width="6.25" style="1" customWidth="1"/>
+    <col min="4062" max="4107" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="4108" max="4108" width="8.5" style="1" customWidth="1"/>
+    <col min="4109" max="4109" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4110" max="4110" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4111" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4112" max="4112" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4113" max="4271" width="9" style="1"/>
+    <col min="4272" max="4272" width="4.125" style="1" customWidth="1"/>
+    <col min="4273" max="4273" width="28" style="1" customWidth="1"/>
+    <col min="4274" max="4274" width="5.625" style="1" customWidth="1"/>
+    <col min="4275" max="4275" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4276" max="4276" width="5.375" style="1" customWidth="1"/>
+    <col min="4277" max="4277" width="6.5" style="1" customWidth="1"/>
+    <col min="4278" max="4278" width="11" style="1" customWidth="1"/>
+    <col min="4279" max="4279" width="4.75" style="1" customWidth="1"/>
+    <col min="4280" max="4284" width="5.625" style="1" customWidth="1"/>
+    <col min="4285" max="4285" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4286" max="4286" width="11.75" style="1" customWidth="1"/>
+    <col min="4287" max="4287" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4288" max="4288" width="11.75" style="1" customWidth="1"/>
+    <col min="4289" max="4302" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="4303" max="4314" width="6.25" style="1" customWidth="1"/>
+    <col min="4315" max="4315" width="5.875" style="1" customWidth="1"/>
+    <col min="4316" max="4317" width="6.25" style="1" customWidth="1"/>
+    <col min="4318" max="4363" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="4364" max="4364" width="8.5" style="1" customWidth="1"/>
+    <col min="4365" max="4365" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4366" max="4366" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4367" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4368" max="4368" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4369" max="4527" width="9" style="1"/>
+    <col min="4528" max="4528" width="4.125" style="1" customWidth="1"/>
+    <col min="4529" max="4529" width="28" style="1" customWidth="1"/>
+    <col min="4530" max="4530" width="5.625" style="1" customWidth="1"/>
+    <col min="4531" max="4531" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4532" max="4532" width="5.375" style="1" customWidth="1"/>
+    <col min="4533" max="4533" width="6.5" style="1" customWidth="1"/>
+    <col min="4534" max="4534" width="11" style="1" customWidth="1"/>
+    <col min="4535" max="4535" width="4.75" style="1" customWidth="1"/>
+    <col min="4536" max="4540" width="5.625" style="1" customWidth="1"/>
+    <col min="4541" max="4541" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4542" max="4542" width="11.75" style="1" customWidth="1"/>
+    <col min="4543" max="4543" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4544" max="4544" width="11.75" style="1" customWidth="1"/>
+    <col min="4545" max="4558" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="4559" max="4570" width="6.25" style="1" customWidth="1"/>
+    <col min="4571" max="4571" width="5.875" style="1" customWidth="1"/>
+    <col min="4572" max="4573" width="6.25" style="1" customWidth="1"/>
+    <col min="4574" max="4619" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="4620" max="4620" width="8.5" style="1" customWidth="1"/>
+    <col min="4621" max="4621" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4622" max="4622" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4623" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4624" max="4624" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4625" max="4783" width="9" style="1"/>
+    <col min="4784" max="4784" width="4.125" style="1" customWidth="1"/>
+    <col min="4785" max="4785" width="28" style="1" customWidth="1"/>
+    <col min="4786" max="4786" width="5.625" style="1" customWidth="1"/>
+    <col min="4787" max="4787" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4788" max="4788" width="5.375" style="1" customWidth="1"/>
+    <col min="4789" max="4789" width="6.5" style="1" customWidth="1"/>
+    <col min="4790" max="4790" width="11" style="1" customWidth="1"/>
+    <col min="4791" max="4791" width="4.75" style="1" customWidth="1"/>
+    <col min="4792" max="4796" width="5.625" style="1" customWidth="1"/>
+    <col min="4797" max="4797" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4798" max="4798" width="11.75" style="1" customWidth="1"/>
+    <col min="4799" max="4799" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4800" max="4800" width="11.75" style="1" customWidth="1"/>
+    <col min="4801" max="4814" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="4815" max="4826" width="6.25" style="1" customWidth="1"/>
+    <col min="4827" max="4827" width="5.875" style="1" customWidth="1"/>
+    <col min="4828" max="4829" width="6.25" style="1" customWidth="1"/>
+    <col min="4830" max="4875" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="4876" max="4876" width="8.5" style="1" customWidth="1"/>
+    <col min="4877" max="4877" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4878" max="4878" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="4879" max="4879" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4880" max="4880" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4881" max="5039" width="9" style="1"/>
+    <col min="5040" max="5040" width="4.125" style="1" customWidth="1"/>
+    <col min="5041" max="5041" width="28" style="1" customWidth="1"/>
+    <col min="5042" max="5042" width="5.625" style="1" customWidth="1"/>
+    <col min="5043" max="5043" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5044" max="5044" width="5.375" style="1" customWidth="1"/>
+    <col min="5045" max="5045" width="6.5" style="1" customWidth="1"/>
+    <col min="5046" max="5046" width="11" style="1" customWidth="1"/>
+    <col min="5047" max="5047" width="4.75" style="1" customWidth="1"/>
+    <col min="5048" max="5052" width="5.625" style="1" customWidth="1"/>
+    <col min="5053" max="5053" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5054" max="5054" width="11.75" style="1" customWidth="1"/>
+    <col min="5055" max="5055" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5056" max="5056" width="11.75" style="1" customWidth="1"/>
+    <col min="5057" max="5070" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5071" max="5082" width="6.25" style="1" customWidth="1"/>
+    <col min="5083" max="5083" width="5.875" style="1" customWidth="1"/>
+    <col min="5084" max="5085" width="6.25" style="1" customWidth="1"/>
+    <col min="5086" max="5131" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5132" max="5132" width="8.5" style="1" customWidth="1"/>
+    <col min="5133" max="5133" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5134" max="5134" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5135" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5136" max="5136" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5137" max="5295" width="9" style="1"/>
+    <col min="5296" max="5296" width="4.125" style="1" customWidth="1"/>
+    <col min="5297" max="5297" width="28" style="1" customWidth="1"/>
+    <col min="5298" max="5298" width="5.625" style="1" customWidth="1"/>
+    <col min="5299" max="5299" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5300" max="5300" width="5.375" style="1" customWidth="1"/>
+    <col min="5301" max="5301" width="6.5" style="1" customWidth="1"/>
+    <col min="5302" max="5302" width="11" style="1" customWidth="1"/>
+    <col min="5303" max="5303" width="4.75" style="1" customWidth="1"/>
+    <col min="5304" max="5308" width="5.625" style="1" customWidth="1"/>
+    <col min="5309" max="5309" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5310" max="5310" width="11.75" style="1" customWidth="1"/>
+    <col min="5311" max="5311" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5312" max="5312" width="11.75" style="1" customWidth="1"/>
+    <col min="5313" max="5326" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5327" max="5338" width="6.25" style="1" customWidth="1"/>
+    <col min="5339" max="5339" width="5.875" style="1" customWidth="1"/>
+    <col min="5340" max="5341" width="6.25" style="1" customWidth="1"/>
+    <col min="5342" max="5387" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5388" max="5388" width="8.5" style="1" customWidth="1"/>
+    <col min="5389" max="5389" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5390" max="5390" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5391" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5392" max="5392" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5393" max="5551" width="9" style="1"/>
+    <col min="5552" max="5552" width="4.125" style="1" customWidth="1"/>
+    <col min="5553" max="5553" width="28" style="1" customWidth="1"/>
+    <col min="5554" max="5554" width="5.625" style="1" customWidth="1"/>
+    <col min="5555" max="5555" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5556" max="5556" width="5.375" style="1" customWidth="1"/>
+    <col min="5557" max="5557" width="6.5" style="1" customWidth="1"/>
+    <col min="5558" max="5558" width="11" style="1" customWidth="1"/>
+    <col min="5559" max="5559" width="4.75" style="1" customWidth="1"/>
+    <col min="5560" max="5564" width="5.625" style="1" customWidth="1"/>
+    <col min="5565" max="5565" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5566" max="5566" width="11.75" style="1" customWidth="1"/>
+    <col min="5567" max="5567" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5568" max="5568" width="11.75" style="1" customWidth="1"/>
+    <col min="5569" max="5582" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5583" max="5594" width="6.25" style="1" customWidth="1"/>
+    <col min="5595" max="5595" width="5.875" style="1" customWidth="1"/>
+    <col min="5596" max="5597" width="6.25" style="1" customWidth="1"/>
+    <col min="5598" max="5643" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5644" max="5644" width="8.5" style="1" customWidth="1"/>
+    <col min="5645" max="5645" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5646" max="5646" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5647" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5648" max="5648" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5649" max="5807" width="9" style="1"/>
+    <col min="5808" max="5808" width="4.125" style="1" customWidth="1"/>
+    <col min="5809" max="5809" width="28" style="1" customWidth="1"/>
+    <col min="5810" max="5810" width="5.625" style="1" customWidth="1"/>
+    <col min="5811" max="5811" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5812" max="5812" width="5.375" style="1" customWidth="1"/>
+    <col min="5813" max="5813" width="6.5" style="1" customWidth="1"/>
+    <col min="5814" max="5814" width="11" style="1" customWidth="1"/>
+    <col min="5815" max="5815" width="4.75" style="1" customWidth="1"/>
+    <col min="5816" max="5820" width="5.625" style="1" customWidth="1"/>
+    <col min="5821" max="5821" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5822" max="5822" width="11.75" style="1" customWidth="1"/>
+    <col min="5823" max="5823" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5824" max="5824" width="11.75" style="1" customWidth="1"/>
+    <col min="5825" max="5838" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5839" max="5850" width="6.25" style="1" customWidth="1"/>
+    <col min="5851" max="5851" width="5.875" style="1" customWidth="1"/>
+    <col min="5852" max="5853" width="6.25" style="1" customWidth="1"/>
+    <col min="5854" max="5899" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5900" max="5900" width="8.5" style="1" customWidth="1"/>
+    <col min="5901" max="5901" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5902" max="5902" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="5903" max="5903" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5904" max="5904" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5905" max="6063" width="9" style="1"/>
+    <col min="6064" max="6064" width="4.125" style="1" customWidth="1"/>
+    <col min="6065" max="6065" width="28" style="1" customWidth="1"/>
+    <col min="6066" max="6066" width="5.625" style="1" customWidth="1"/>
+    <col min="6067" max="6067" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6068" max="6068" width="5.375" style="1" customWidth="1"/>
+    <col min="6069" max="6069" width="6.5" style="1" customWidth="1"/>
+    <col min="6070" max="6070" width="11" style="1" customWidth="1"/>
+    <col min="6071" max="6071" width="4.75" style="1" customWidth="1"/>
+    <col min="6072" max="6076" width="5.625" style="1" customWidth="1"/>
+    <col min="6077" max="6077" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6078" max="6078" width="11.75" style="1" customWidth="1"/>
+    <col min="6079" max="6079" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6080" max="6080" width="11.75" style="1" customWidth="1"/>
+    <col min="6081" max="6094" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="6095" max="6106" width="6.25" style="1" customWidth="1"/>
+    <col min="6107" max="6107" width="5.875" style="1" customWidth="1"/>
+    <col min="6108" max="6109" width="6.25" style="1" customWidth="1"/>
+    <col min="6110" max="6155" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="6156" max="6156" width="8.5" style="1" customWidth="1"/>
+    <col min="6157" max="6157" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6158" max="6158" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6159" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6160" max="6160" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6161" max="6319" width="9" style="1"/>
+    <col min="6320" max="6320" width="4.125" style="1" customWidth="1"/>
+    <col min="6321" max="6321" width="28" style="1" customWidth="1"/>
+    <col min="6322" max="6322" width="5.625" style="1" customWidth="1"/>
+    <col min="6323" max="6323" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6324" max="6324" width="5.375" style="1" customWidth="1"/>
+    <col min="6325" max="6325" width="6.5" style="1" customWidth="1"/>
+    <col min="6326" max="6326" width="11" style="1" customWidth="1"/>
+    <col min="6327" max="6327" width="4.75" style="1" customWidth="1"/>
+    <col min="6328" max="6332" width="5.625" style="1" customWidth="1"/>
+    <col min="6333" max="6333" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6334" max="6334" width="11.75" style="1" customWidth="1"/>
+    <col min="6335" max="6335" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6336" max="6336" width="11.75" style="1" customWidth="1"/>
+    <col min="6337" max="6350" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="6351" max="6362" width="6.25" style="1" customWidth="1"/>
+    <col min="6363" max="6363" width="5.875" style="1" customWidth="1"/>
+    <col min="6364" max="6365" width="6.25" style="1" customWidth="1"/>
+    <col min="6366" max="6411" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="6412" max="6412" width="8.5" style="1" customWidth="1"/>
+    <col min="6413" max="6413" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6414" max="6414" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6415" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6416" max="6416" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6417" max="6575" width="9" style="1"/>
+    <col min="6576" max="6576" width="4.125" style="1" customWidth="1"/>
+    <col min="6577" max="6577" width="28" style="1" customWidth="1"/>
+    <col min="6578" max="6578" width="5.625" style="1" customWidth="1"/>
+    <col min="6579" max="6579" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6580" max="6580" width="5.375" style="1" customWidth="1"/>
+    <col min="6581" max="6581" width="6.5" style="1" customWidth="1"/>
+    <col min="6582" max="6582" width="11" style="1" customWidth="1"/>
+    <col min="6583" max="6583" width="4.75" style="1" customWidth="1"/>
+    <col min="6584" max="6588" width="5.625" style="1" customWidth="1"/>
+    <col min="6589" max="6589" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6590" max="6590" width="11.75" style="1" customWidth="1"/>
+    <col min="6591" max="6591" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6592" max="6592" width="11.75" style="1" customWidth="1"/>
+    <col min="6593" max="6606" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="6607" max="6618" width="6.25" style="1" customWidth="1"/>
+    <col min="6619" max="6619" width="5.875" style="1" customWidth="1"/>
+    <col min="6620" max="6621" width="6.25" style="1" customWidth="1"/>
+    <col min="6622" max="6667" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="6668" max="6668" width="8.5" style="1" customWidth="1"/>
+    <col min="6669" max="6669" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6670" max="6670" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6671" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6672" max="6672" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6673" max="6831" width="9" style="1"/>
+    <col min="6832" max="6832" width="4.125" style="1" customWidth="1"/>
+    <col min="6833" max="6833" width="28" style="1" customWidth="1"/>
+    <col min="6834" max="6834" width="5.625" style="1" customWidth="1"/>
+    <col min="6835" max="6835" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6836" max="6836" width="5.375" style="1" customWidth="1"/>
+    <col min="6837" max="6837" width="6.5" style="1" customWidth="1"/>
+    <col min="6838" max="6838" width="11" style="1" customWidth="1"/>
+    <col min="6839" max="6839" width="4.75" style="1" customWidth="1"/>
+    <col min="6840" max="6844" width="5.625" style="1" customWidth="1"/>
+    <col min="6845" max="6845" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6846" max="6846" width="11.75" style="1" customWidth="1"/>
+    <col min="6847" max="6847" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6848" max="6848" width="11.75" style="1" customWidth="1"/>
+    <col min="6849" max="6862" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="6863" max="6874" width="6.25" style="1" customWidth="1"/>
+    <col min="6875" max="6875" width="5.875" style="1" customWidth="1"/>
+    <col min="6876" max="6877" width="6.25" style="1" customWidth="1"/>
+    <col min="6878" max="6923" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="6924" max="6924" width="8.5" style="1" customWidth="1"/>
+    <col min="6925" max="6925" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6926" max="6926" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="6927" max="6927" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6928" max="6928" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6929" max="7087" width="9" style="1"/>
+    <col min="7088" max="7088" width="4.125" style="1" customWidth="1"/>
+    <col min="7089" max="7089" width="28" style="1" customWidth="1"/>
+    <col min="7090" max="7090" width="5.625" style="1" customWidth="1"/>
+    <col min="7091" max="7091" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7092" max="7092" width="5.375" style="1" customWidth="1"/>
+    <col min="7093" max="7093" width="6.5" style="1" customWidth="1"/>
+    <col min="7094" max="7094" width="11" style="1" customWidth="1"/>
+    <col min="7095" max="7095" width="4.75" style="1" customWidth="1"/>
+    <col min="7096" max="7100" width="5.625" style="1" customWidth="1"/>
+    <col min="7101" max="7101" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7102" max="7102" width="11.75" style="1" customWidth="1"/>
+    <col min="7103" max="7103" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7104" max="7104" width="11.75" style="1" customWidth="1"/>
+    <col min="7105" max="7118" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="7119" max="7130" width="6.25" style="1" customWidth="1"/>
+    <col min="7131" max="7131" width="5.875" style="1" customWidth="1"/>
+    <col min="7132" max="7133" width="6.25" style="1" customWidth="1"/>
+    <col min="7134" max="7179" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="7180" max="7180" width="8.5" style="1" customWidth="1"/>
+    <col min="7181" max="7181" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7182" max="7182" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7183" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7184" max="7184" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7185" max="7343" width="9" style="1"/>
+    <col min="7344" max="7344" width="4.125" style="1" customWidth="1"/>
+    <col min="7345" max="7345" width="28" style="1" customWidth="1"/>
+    <col min="7346" max="7346" width="5.625" style="1" customWidth="1"/>
+    <col min="7347" max="7347" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7348" max="7348" width="5.375" style="1" customWidth="1"/>
+    <col min="7349" max="7349" width="6.5" style="1" customWidth="1"/>
+    <col min="7350" max="7350" width="11" style="1" customWidth="1"/>
+    <col min="7351" max="7351" width="4.75" style="1" customWidth="1"/>
+    <col min="7352" max="7356" width="5.625" style="1" customWidth="1"/>
+    <col min="7357" max="7357" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7358" max="7358" width="11.75" style="1" customWidth="1"/>
+    <col min="7359" max="7359" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7360" max="7360" width="11.75" style="1" customWidth="1"/>
+    <col min="7361" max="7374" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="7375" max="7386" width="6.25" style="1" customWidth="1"/>
+    <col min="7387" max="7387" width="5.875" style="1" customWidth="1"/>
+    <col min="7388" max="7389" width="6.25" style="1" customWidth="1"/>
+    <col min="7390" max="7435" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="7436" max="7436" width="8.5" style="1" customWidth="1"/>
+    <col min="7437" max="7437" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7438" max="7438" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7439" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7440" max="7440" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7441" max="7599" width="9" style="1"/>
+    <col min="7600" max="7600" width="4.125" style="1" customWidth="1"/>
+    <col min="7601" max="7601" width="28" style="1" customWidth="1"/>
+    <col min="7602" max="7602" width="5.625" style="1" customWidth="1"/>
+    <col min="7603" max="7603" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7604" max="7604" width="5.375" style="1" customWidth="1"/>
+    <col min="7605" max="7605" width="6.5" style="1" customWidth="1"/>
+    <col min="7606" max="7606" width="11" style="1" customWidth="1"/>
+    <col min="7607" max="7607" width="4.75" style="1" customWidth="1"/>
+    <col min="7608" max="7612" width="5.625" style="1" customWidth="1"/>
+    <col min="7613" max="7613" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7614" max="7614" width="11.75" style="1" customWidth="1"/>
+    <col min="7615" max="7615" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7616" max="7616" width="11.75" style="1" customWidth="1"/>
+    <col min="7617" max="7630" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="7631" max="7642" width="6.25" style="1" customWidth="1"/>
+    <col min="7643" max="7643" width="5.875" style="1" customWidth="1"/>
+    <col min="7644" max="7645" width="6.25" style="1" customWidth="1"/>
+    <col min="7646" max="7691" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="7692" max="7692" width="8.5" style="1" customWidth="1"/>
+    <col min="7693" max="7693" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7694" max="7694" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7695" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7696" max="7696" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7697" max="7855" width="9" style="1"/>
+    <col min="7856" max="7856" width="4.125" style="1" customWidth="1"/>
+    <col min="7857" max="7857" width="28" style="1" customWidth="1"/>
+    <col min="7858" max="7858" width="5.625" style="1" customWidth="1"/>
+    <col min="7859" max="7859" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7860" max="7860" width="5.375" style="1" customWidth="1"/>
+    <col min="7861" max="7861" width="6.5" style="1" customWidth="1"/>
+    <col min="7862" max="7862" width="11" style="1" customWidth="1"/>
+    <col min="7863" max="7863" width="4.75" style="1" customWidth="1"/>
+    <col min="7864" max="7868" width="5.625" style="1" customWidth="1"/>
+    <col min="7869" max="7869" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7870" max="7870" width="11.75" style="1" customWidth="1"/>
+    <col min="7871" max="7871" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7872" max="7872" width="11.75" style="1" customWidth="1"/>
+    <col min="7873" max="7886" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="7887" max="7898" width="6.25" style="1" customWidth="1"/>
+    <col min="7899" max="7899" width="5.875" style="1" customWidth="1"/>
+    <col min="7900" max="7901" width="6.25" style="1" customWidth="1"/>
+    <col min="7902" max="7947" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="7948" max="7948" width="8.5" style="1" customWidth="1"/>
+    <col min="7949" max="7949" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7950" max="7950" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="7951" max="7951" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7952" max="7952" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7953" max="8111" width="9" style="1"/>
+    <col min="8112" max="8112" width="4.125" style="1" customWidth="1"/>
+    <col min="8113" max="8113" width="28" style="1" customWidth="1"/>
+    <col min="8114" max="8114" width="5.625" style="1" customWidth="1"/>
+    <col min="8115" max="8115" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8116" max="8116" width="5.375" style="1" customWidth="1"/>
+    <col min="8117" max="8117" width="6.5" style="1" customWidth="1"/>
+    <col min="8118" max="8118" width="11" style="1" customWidth="1"/>
+    <col min="8119" max="8119" width="4.75" style="1" customWidth="1"/>
+    <col min="8120" max="8124" width="5.625" style="1" customWidth="1"/>
+    <col min="8125" max="8125" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8126" max="8126" width="11.75" style="1" customWidth="1"/>
+    <col min="8127" max="8127" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8128" max="8128" width="11.75" style="1" customWidth="1"/>
+    <col min="8129" max="8142" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="8143" max="8154" width="6.25" style="1" customWidth="1"/>
+    <col min="8155" max="8155" width="5.875" style="1" customWidth="1"/>
+    <col min="8156" max="8157" width="6.25" style="1" customWidth="1"/>
+    <col min="8158" max="8203" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="8204" max="8204" width="8.5" style="1" customWidth="1"/>
+    <col min="8205" max="8205" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8206" max="8206" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8207" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8208" max="8208" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8209" max="8367" width="9" style="1"/>
+    <col min="8368" max="8368" width="4.125" style="1" customWidth="1"/>
+    <col min="8369" max="8369" width="28" style="1" customWidth="1"/>
+    <col min="8370" max="8370" width="5.625" style="1" customWidth="1"/>
+    <col min="8371" max="8371" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8372" max="8372" width="5.375" style="1" customWidth="1"/>
+    <col min="8373" max="8373" width="6.5" style="1" customWidth="1"/>
+    <col min="8374" max="8374" width="11" style="1" customWidth="1"/>
+    <col min="8375" max="8375" width="4.75" style="1" customWidth="1"/>
+    <col min="8376" max="8380" width="5.625" style="1" customWidth="1"/>
+    <col min="8381" max="8381" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8382" max="8382" width="11.75" style="1" customWidth="1"/>
+    <col min="8383" max="8383" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8384" max="8384" width="11.75" style="1" customWidth="1"/>
+    <col min="8385" max="8398" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="8399" max="8410" width="6.25" style="1" customWidth="1"/>
+    <col min="8411" max="8411" width="5.875" style="1" customWidth="1"/>
+    <col min="8412" max="8413" width="6.25" style="1" customWidth="1"/>
+    <col min="8414" max="8459" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="8460" max="8460" width="8.5" style="1" customWidth="1"/>
+    <col min="8461" max="8461" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8462" max="8462" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8463" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8464" max="8464" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8465" max="8623" width="9" style="1"/>
+    <col min="8624" max="8624" width="4.125" style="1" customWidth="1"/>
+    <col min="8625" max="8625" width="28" style="1" customWidth="1"/>
+    <col min="8626" max="8626" width="5.625" style="1" customWidth="1"/>
+    <col min="8627" max="8627" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8628" max="8628" width="5.375" style="1" customWidth="1"/>
+    <col min="8629" max="8629" width="6.5" style="1" customWidth="1"/>
+    <col min="8630" max="8630" width="11" style="1" customWidth="1"/>
+    <col min="8631" max="8631" width="4.75" style="1" customWidth="1"/>
+    <col min="8632" max="8636" width="5.625" style="1" customWidth="1"/>
+    <col min="8637" max="8637" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8638" max="8638" width="11.75" style="1" customWidth="1"/>
+    <col min="8639" max="8639" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8640" max="8640" width="11.75" style="1" customWidth="1"/>
+    <col min="8641" max="8654" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="8655" max="8666" width="6.25" style="1" customWidth="1"/>
+    <col min="8667" max="8667" width="5.875" style="1" customWidth="1"/>
+    <col min="8668" max="8669" width="6.25" style="1" customWidth="1"/>
+    <col min="8670" max="8715" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="8716" max="8716" width="8.5" style="1" customWidth="1"/>
+    <col min="8717" max="8717" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8718" max="8718" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8719" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8720" max="8720" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8721" max="8879" width="9" style="1"/>
+    <col min="8880" max="8880" width="4.125" style="1" customWidth="1"/>
+    <col min="8881" max="8881" width="28" style="1" customWidth="1"/>
+    <col min="8882" max="8882" width="5.625" style="1" customWidth="1"/>
+    <col min="8883" max="8883" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8884" max="8884" width="5.375" style="1" customWidth="1"/>
+    <col min="8885" max="8885" width="6.5" style="1" customWidth="1"/>
+    <col min="8886" max="8886" width="11" style="1" customWidth="1"/>
+    <col min="8887" max="8887" width="4.75" style="1" customWidth="1"/>
+    <col min="8888" max="8892" width="5.625" style="1" customWidth="1"/>
+    <col min="8893" max="8893" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8894" max="8894" width="11.75" style="1" customWidth="1"/>
+    <col min="8895" max="8895" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8896" max="8896" width="11.75" style="1" customWidth="1"/>
+    <col min="8897" max="8910" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="8911" max="8922" width="6.25" style="1" customWidth="1"/>
+    <col min="8923" max="8923" width="5.875" style="1" customWidth="1"/>
+    <col min="8924" max="8925" width="6.25" style="1" customWidth="1"/>
+    <col min="8926" max="8971" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="8972" max="8972" width="8.5" style="1" customWidth="1"/>
+    <col min="8973" max="8973" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8974" max="8974" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="8975" max="8975" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8976" max="8976" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8977" max="9135" width="9" style="1"/>
+    <col min="9136" max="9136" width="4.125" style="1" customWidth="1"/>
+    <col min="9137" max="9137" width="28" style="1" customWidth="1"/>
+    <col min="9138" max="9138" width="5.625" style="1" customWidth="1"/>
+    <col min="9139" max="9139" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9140" max="9140" width="5.375" style="1" customWidth="1"/>
+    <col min="9141" max="9141" width="6.5" style="1" customWidth="1"/>
+    <col min="9142" max="9142" width="11" style="1" customWidth="1"/>
+    <col min="9143" max="9143" width="4.75" style="1" customWidth="1"/>
+    <col min="9144" max="9148" width="5.625" style="1" customWidth="1"/>
+    <col min="9149" max="9149" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9150" max="9150" width="11.75" style="1" customWidth="1"/>
+    <col min="9151" max="9151" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9152" max="9152" width="11.75" style="1" customWidth="1"/>
+    <col min="9153" max="9166" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="9167" max="9178" width="6.25" style="1" customWidth="1"/>
+    <col min="9179" max="9179" width="5.875" style="1" customWidth="1"/>
+    <col min="9180" max="9181" width="6.25" style="1" customWidth="1"/>
+    <col min="9182" max="9227" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="9228" max="9228" width="8.5" style="1" customWidth="1"/>
+    <col min="9229" max="9229" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9230" max="9230" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9231" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9232" max="9232" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9233" max="9391" width="9" style="1"/>
+    <col min="9392" max="9392" width="4.125" style="1" customWidth="1"/>
+    <col min="9393" max="9393" width="28" style="1" customWidth="1"/>
+    <col min="9394" max="9394" width="5.625" style="1" customWidth="1"/>
+    <col min="9395" max="9395" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9396" max="9396" width="5.375" style="1" customWidth="1"/>
+    <col min="9397" max="9397" width="6.5" style="1" customWidth="1"/>
+    <col min="9398" max="9398" width="11" style="1" customWidth="1"/>
+    <col min="9399" max="9399" width="4.75" style="1" customWidth="1"/>
+    <col min="9400" max="9404" width="5.625" style="1" customWidth="1"/>
+    <col min="9405" max="9405" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9406" max="9406" width="11.75" style="1" customWidth="1"/>
+    <col min="9407" max="9407" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9408" max="9408" width="11.75" style="1" customWidth="1"/>
+    <col min="9409" max="9422" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="9423" max="9434" width="6.25" style="1" customWidth="1"/>
+    <col min="9435" max="9435" width="5.875" style="1" customWidth="1"/>
+    <col min="9436" max="9437" width="6.25" style="1" customWidth="1"/>
+    <col min="9438" max="9483" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="9484" max="9484" width="8.5" style="1" customWidth="1"/>
+    <col min="9485" max="9485" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9486" max="9486" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9487" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9488" max="9488" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9489" max="9647" width="9" style="1"/>
+    <col min="9648" max="9648" width="4.125" style="1" customWidth="1"/>
+    <col min="9649" max="9649" width="28" style="1" customWidth="1"/>
+    <col min="9650" max="9650" width="5.625" style="1" customWidth="1"/>
+    <col min="9651" max="9651" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9652" max="9652" width="5.375" style="1" customWidth="1"/>
+    <col min="9653" max="9653" width="6.5" style="1" customWidth="1"/>
+    <col min="9654" max="9654" width="11" style="1" customWidth="1"/>
+    <col min="9655" max="9655" width="4.75" style="1" customWidth="1"/>
+    <col min="9656" max="9660" width="5.625" style="1" customWidth="1"/>
+    <col min="9661" max="9661" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9662" max="9662" width="11.75" style="1" customWidth="1"/>
+    <col min="9663" max="9663" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9664" max="9664" width="11.75" style="1" customWidth="1"/>
+    <col min="9665" max="9678" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="9679" max="9690" width="6.25" style="1" customWidth="1"/>
+    <col min="9691" max="9691" width="5.875" style="1" customWidth="1"/>
+    <col min="9692" max="9693" width="6.25" style="1" customWidth="1"/>
+    <col min="9694" max="9739" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="9740" max="9740" width="8.5" style="1" customWidth="1"/>
+    <col min="9741" max="9741" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9742" max="9742" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9743" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9744" max="9744" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9745" max="9903" width="9" style="1"/>
+    <col min="9904" max="9904" width="4.125" style="1" customWidth="1"/>
+    <col min="9905" max="9905" width="28" style="1" customWidth="1"/>
+    <col min="9906" max="9906" width="5.625" style="1" customWidth="1"/>
+    <col min="9907" max="9907" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9908" max="9908" width="5.375" style="1" customWidth="1"/>
+    <col min="9909" max="9909" width="6.5" style="1" customWidth="1"/>
+    <col min="9910" max="9910" width="11" style="1" customWidth="1"/>
+    <col min="9911" max="9911" width="4.75" style="1" customWidth="1"/>
+    <col min="9912" max="9916" width="5.625" style="1" customWidth="1"/>
+    <col min="9917" max="9917" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9918" max="9918" width="11.75" style="1" customWidth="1"/>
+    <col min="9919" max="9919" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9920" max="9920" width="11.75" style="1" customWidth="1"/>
+    <col min="9921" max="9934" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="9935" max="9946" width="6.25" style="1" customWidth="1"/>
+    <col min="9947" max="9947" width="5.875" style="1" customWidth="1"/>
+    <col min="9948" max="9949" width="6.25" style="1" customWidth="1"/>
+    <col min="9950" max="9995" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="9996" max="9996" width="8.5" style="1" customWidth="1"/>
+    <col min="9997" max="9997" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9998" max="9998" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="9999" max="9999" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10000" max="10000" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10001" max="10159" width="9" style="1"/>
+    <col min="10160" max="10160" width="4.125" style="1" customWidth="1"/>
+    <col min="10161" max="10161" width="28" style="1" customWidth="1"/>
+    <col min="10162" max="10162" width="5.625" style="1" customWidth="1"/>
+    <col min="10163" max="10163" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10164" max="10164" width="5.375" style="1" customWidth="1"/>
+    <col min="10165" max="10165" width="6.5" style="1" customWidth="1"/>
+    <col min="10166" max="10166" width="11" style="1" customWidth="1"/>
+    <col min="10167" max="10167" width="4.75" style="1" customWidth="1"/>
+    <col min="10168" max="10172" width="5.625" style="1" customWidth="1"/>
+    <col min="10173" max="10173" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10174" max="10174" width="11.75" style="1" customWidth="1"/>
+    <col min="10175" max="10175" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10176" max="10176" width="11.75" style="1" customWidth="1"/>
+    <col min="10177" max="10190" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="10191" max="10202" width="6.25" style="1" customWidth="1"/>
+    <col min="10203" max="10203" width="5.875" style="1" customWidth="1"/>
+    <col min="10204" max="10205" width="6.25" style="1" customWidth="1"/>
+    <col min="10206" max="10251" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="10252" max="10252" width="8.5" style="1" customWidth="1"/>
+    <col min="10253" max="10253" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10254" max="10254" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10255" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10256" max="10256" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10257" max="10415" width="9" style="1"/>
+    <col min="10416" max="10416" width="4.125" style="1" customWidth="1"/>
+    <col min="10417" max="10417" width="28" style="1" customWidth="1"/>
+    <col min="10418" max="10418" width="5.625" style="1" customWidth="1"/>
+    <col min="10419" max="10419" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10420" max="10420" width="5.375" style="1" customWidth="1"/>
+    <col min="10421" max="10421" width="6.5" style="1" customWidth="1"/>
+    <col min="10422" max="10422" width="11" style="1" customWidth="1"/>
+    <col min="10423" max="10423" width="4.75" style="1" customWidth="1"/>
+    <col min="10424" max="10428" width="5.625" style="1" customWidth="1"/>
+    <col min="10429" max="10429" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10430" max="10430" width="11.75" style="1" customWidth="1"/>
+    <col min="10431" max="10431" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10432" max="10432" width="11.75" style="1" customWidth="1"/>
+    <col min="10433" max="10446" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="10447" max="10458" width="6.25" style="1" customWidth="1"/>
+    <col min="10459" max="10459" width="5.875" style="1" customWidth="1"/>
+    <col min="10460" max="10461" width="6.25" style="1" customWidth="1"/>
+    <col min="10462" max="10507" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="10508" max="10508" width="8.5" style="1" customWidth="1"/>
+    <col min="10509" max="10509" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10510" max="10510" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10511" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10512" max="10512" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10513" max="10671" width="9" style="1"/>
+    <col min="10672" max="10672" width="4.125" style="1" customWidth="1"/>
+    <col min="10673" max="10673" width="28" style="1" customWidth="1"/>
+    <col min="10674" max="10674" width="5.625" style="1" customWidth="1"/>
+    <col min="10675" max="10675" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10676" max="10676" width="5.375" style="1" customWidth="1"/>
+    <col min="10677" max="10677" width="6.5" style="1" customWidth="1"/>
+    <col min="10678" max="10678" width="11" style="1" customWidth="1"/>
+    <col min="10679" max="10679" width="4.75" style="1" customWidth="1"/>
+    <col min="10680" max="10684" width="5.625" style="1" customWidth="1"/>
+    <col min="10685" max="10685" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10686" max="10686" width="11.75" style="1" customWidth="1"/>
+    <col min="10687" max="10687" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10688" max="10688" width="11.75" style="1" customWidth="1"/>
+    <col min="10689" max="10702" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="10703" max="10714" width="6.25" style="1" customWidth="1"/>
+    <col min="10715" max="10715" width="5.875" style="1" customWidth="1"/>
+    <col min="10716" max="10717" width="6.25" style="1" customWidth="1"/>
+    <col min="10718" max="10763" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="10764" max="10764" width="8.5" style="1" customWidth="1"/>
+    <col min="10765" max="10765" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10766" max="10766" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="10767" max="10767" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10768" max="10768" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10769" max="10927" width="9" style="1"/>
+    <col min="10928" max="10928" width="4.125" style="1" customWidth="1"/>
+    <col min="10929" max="10929" width="28" style="1" customWidth="1"/>
+    <col min="10930" max="10930" width="5.625" style="1" customWidth="1"/>
+    <col min="10931" max="10931" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10932" max="10932" width="5.375" style="1" customWidth="1"/>
+    <col min="10933" max="10933" width="6.5" style="1" customWidth="1"/>
+    <col min="10934" max="10934" width="11" style="1" customWidth="1"/>
+    <col min="10935" max="10935" width="4.75" style="1" customWidth="1"/>
+    <col min="10936" max="10940" width="5.625" style="1" customWidth="1"/>
+    <col min="10941" max="10941" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10942" max="10942" width="11.75" style="1" customWidth="1"/>
+    <col min="10943" max="10943" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10944" max="10944" width="11.75" style="1" customWidth="1"/>
+    <col min="10945" max="10958" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="10959" max="10970" width="6.25" style="1" customWidth="1"/>
+    <col min="10971" max="10971" width="5.875" style="1" customWidth="1"/>
+    <col min="10972" max="10973" width="6.25" style="1" customWidth="1"/>
+    <col min="10974" max="11019" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="11020" max="11020" width="8.5" style="1" customWidth="1"/>
+    <col min="11021" max="11021" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11022" max="11022" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11023" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11024" max="11024" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11025" max="11183" width="9" style="1"/>
+    <col min="11184" max="11184" width="4.125" style="1" customWidth="1"/>
+    <col min="11185" max="11185" width="28" style="1" customWidth="1"/>
+    <col min="11186" max="11186" width="5.625" style="1" customWidth="1"/>
+    <col min="11187" max="11187" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11188" max="11188" width="5.375" style="1" customWidth="1"/>
+    <col min="11189" max="11189" width="6.5" style="1" customWidth="1"/>
+    <col min="11190" max="11190" width="11" style="1" customWidth="1"/>
+    <col min="11191" max="11191" width="4.75" style="1" customWidth="1"/>
+    <col min="11192" max="11196" width="5.625" style="1" customWidth="1"/>
+    <col min="11197" max="11197" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11198" max="11198" width="11.75" style="1" customWidth="1"/>
+    <col min="11199" max="11199" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11200" max="11200" width="11.75" style="1" customWidth="1"/>
+    <col min="11201" max="11214" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="11215" max="11226" width="6.25" style="1" customWidth="1"/>
+    <col min="11227" max="11227" width="5.875" style="1" customWidth="1"/>
+    <col min="11228" max="11229" width="6.25" style="1" customWidth="1"/>
+    <col min="11230" max="11275" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="11276" max="11276" width="8.5" style="1" customWidth="1"/>
+    <col min="11277" max="11277" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11278" max="11278" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11279" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11280" max="11280" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11281" max="11439" width="9" style="1"/>
+    <col min="11440" max="11440" width="4.125" style="1" customWidth="1"/>
+    <col min="11441" max="11441" width="28" style="1" customWidth="1"/>
+    <col min="11442" max="11442" width="5.625" style="1" customWidth="1"/>
+    <col min="11443" max="11443" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11444" max="11444" width="5.375" style="1" customWidth="1"/>
+    <col min="11445" max="11445" width="6.5" style="1" customWidth="1"/>
+    <col min="11446" max="11446" width="11" style="1" customWidth="1"/>
+    <col min="11447" max="11447" width="4.75" style="1" customWidth="1"/>
+    <col min="11448" max="11452" width="5.625" style="1" customWidth="1"/>
+    <col min="11453" max="11453" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11454" max="11454" width="11.75" style="1" customWidth="1"/>
+    <col min="11455" max="11455" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11456" max="11456" width="11.75" style="1" customWidth="1"/>
+    <col min="11457" max="11470" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="11471" max="11482" width="6.25" style="1" customWidth="1"/>
+    <col min="11483" max="11483" width="5.875" style="1" customWidth="1"/>
+    <col min="11484" max="11485" width="6.25" style="1" customWidth="1"/>
+    <col min="11486" max="11531" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="11532" max="11532" width="8.5" style="1" customWidth="1"/>
+    <col min="11533" max="11533" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11534" max="11534" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11535" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11536" max="11536" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11537" max="11695" width="9" style="1"/>
+    <col min="11696" max="11696" width="4.125" style="1" customWidth="1"/>
+    <col min="11697" max="11697" width="28" style="1" customWidth="1"/>
+    <col min="11698" max="11698" width="5.625" style="1" customWidth="1"/>
+    <col min="11699" max="11699" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11700" max="11700" width="5.375" style="1" customWidth="1"/>
+    <col min="11701" max="11701" width="6.5" style="1" customWidth="1"/>
+    <col min="11702" max="11702" width="11" style="1" customWidth="1"/>
+    <col min="11703" max="11703" width="4.75" style="1" customWidth="1"/>
+    <col min="11704" max="11708" width="5.625" style="1" customWidth="1"/>
+    <col min="11709" max="11709" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11710" max="11710" width="11.75" style="1" customWidth="1"/>
+    <col min="11711" max="11711" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11712" max="11712" width="11.75" style="1" customWidth="1"/>
+    <col min="11713" max="11726" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="11727" max="11738" width="6.25" style="1" customWidth="1"/>
+    <col min="11739" max="11739" width="5.875" style="1" customWidth="1"/>
+    <col min="11740" max="11741" width="6.25" style="1" customWidth="1"/>
+    <col min="11742" max="11787" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="11788" max="11788" width="8.5" style="1" customWidth="1"/>
+    <col min="11789" max="11789" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11790" max="11790" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="11791" max="11791" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11792" max="11792" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11793" max="11951" width="9" style="1"/>
+    <col min="11952" max="11952" width="4.125" style="1" customWidth="1"/>
+    <col min="11953" max="11953" width="28" style="1" customWidth="1"/>
+    <col min="11954" max="11954" width="5.625" style="1" customWidth="1"/>
+    <col min="11955" max="11955" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11956" max="11956" width="5.375" style="1" customWidth="1"/>
+    <col min="11957" max="11957" width="6.5" style="1" customWidth="1"/>
+    <col min="11958" max="11958" width="11" style="1" customWidth="1"/>
+    <col min="11959" max="11959" width="4.75" style="1" customWidth="1"/>
+    <col min="11960" max="11964" width="5.625" style="1" customWidth="1"/>
+    <col min="11965" max="11965" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11966" max="11966" width="11.75" style="1" customWidth="1"/>
+    <col min="11967" max="11967" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11968" max="11968" width="11.75" style="1" customWidth="1"/>
+    <col min="11969" max="11982" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="11983" max="11994" width="6.25" style="1" customWidth="1"/>
+    <col min="11995" max="11995" width="5.875" style="1" customWidth="1"/>
+    <col min="11996" max="11997" width="6.25" style="1" customWidth="1"/>
+    <col min="11998" max="12043" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="12044" max="12044" width="8.5" style="1" customWidth="1"/>
+    <col min="12045" max="12045" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12046" max="12046" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12047" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12048" max="12048" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12049" max="12207" width="9" style="1"/>
+    <col min="12208" max="12208" width="4.125" style="1" customWidth="1"/>
+    <col min="12209" max="12209" width="28" style="1" customWidth="1"/>
+    <col min="12210" max="12210" width="5.625" style="1" customWidth="1"/>
+    <col min="12211" max="12211" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12212" max="12212" width="5.375" style="1" customWidth="1"/>
+    <col min="12213" max="12213" width="6.5" style="1" customWidth="1"/>
+    <col min="12214" max="12214" width="11" style="1" customWidth="1"/>
+    <col min="12215" max="12215" width="4.75" style="1" customWidth="1"/>
+    <col min="12216" max="12220" width="5.625" style="1" customWidth="1"/>
+    <col min="12221" max="12221" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12222" max="12222" width="11.75" style="1" customWidth="1"/>
+    <col min="12223" max="12223" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12224" max="12224" width="11.75" style="1" customWidth="1"/>
+    <col min="12225" max="12238" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="12239" max="12250" width="6.25" style="1" customWidth="1"/>
+    <col min="12251" max="12251" width="5.875" style="1" customWidth="1"/>
+    <col min="12252" max="12253" width="6.25" style="1" customWidth="1"/>
+    <col min="12254" max="12299" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="12300" max="12300" width="8.5" style="1" customWidth="1"/>
+    <col min="12301" max="12301" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12302" max="12302" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12303" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12304" max="12304" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12305" max="12463" width="9" style="1"/>
+    <col min="12464" max="12464" width="4.125" style="1" customWidth="1"/>
+    <col min="12465" max="12465" width="28" style="1" customWidth="1"/>
+    <col min="12466" max="12466" width="5.625" style="1" customWidth="1"/>
+    <col min="12467" max="12467" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12468" max="12468" width="5.375" style="1" customWidth="1"/>
+    <col min="12469" max="12469" width="6.5" style="1" customWidth="1"/>
+    <col min="12470" max="12470" width="11" style="1" customWidth="1"/>
+    <col min="12471" max="12471" width="4.75" style="1" customWidth="1"/>
+    <col min="12472" max="12476" width="5.625" style="1" customWidth="1"/>
+    <col min="12477" max="12477" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12478" max="12478" width="11.75" style="1" customWidth="1"/>
+    <col min="12479" max="12479" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12480" max="12480" width="11.75" style="1" customWidth="1"/>
+    <col min="12481" max="12494" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="12495" max="12506" width="6.25" style="1" customWidth="1"/>
+    <col min="12507" max="12507" width="5.875" style="1" customWidth="1"/>
+    <col min="12508" max="12509" width="6.25" style="1" customWidth="1"/>
+    <col min="12510" max="12555" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="12556" max="12556" width="8.5" style="1" customWidth="1"/>
+    <col min="12557" max="12557" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12558" max="12558" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12559" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12560" max="12560" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12561" max="12719" width="9" style="1"/>
+    <col min="12720" max="12720" width="4.125" style="1" customWidth="1"/>
+    <col min="12721" max="12721" width="28" style="1" customWidth="1"/>
+    <col min="12722" max="12722" width="5.625" style="1" customWidth="1"/>
+    <col min="12723" max="12723" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12724" max="12724" width="5.375" style="1" customWidth="1"/>
+    <col min="12725" max="12725" width="6.5" style="1" customWidth="1"/>
+    <col min="12726" max="12726" width="11" style="1" customWidth="1"/>
+    <col min="12727" max="12727" width="4.75" style="1" customWidth="1"/>
+    <col min="12728" max="12732" width="5.625" style="1" customWidth="1"/>
+    <col min="12733" max="12733" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12734" max="12734" width="11.75" style="1" customWidth="1"/>
+    <col min="12735" max="12735" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12736" max="12736" width="11.75" style="1" customWidth="1"/>
+    <col min="12737" max="12750" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="12751" max="12762" width="6.25" style="1" customWidth="1"/>
+    <col min="12763" max="12763" width="5.875" style="1" customWidth="1"/>
+    <col min="12764" max="12765" width="6.25" style="1" customWidth="1"/>
+    <col min="12766" max="12811" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="12812" max="12812" width="8.5" style="1" customWidth="1"/>
+    <col min="12813" max="12813" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12814" max="12814" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="12815" max="12815" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12816" max="12816" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12817" max="12975" width="9" style="1"/>
+    <col min="12976" max="12976" width="4.125" style="1" customWidth="1"/>
+    <col min="12977" max="12977" width="28" style="1" customWidth="1"/>
+    <col min="12978" max="12978" width="5.625" style="1" customWidth="1"/>
+    <col min="12979" max="12979" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12980" max="12980" width="5.375" style="1" customWidth="1"/>
+    <col min="12981" max="12981" width="6.5" style="1" customWidth="1"/>
+    <col min="12982" max="12982" width="11" style="1" customWidth="1"/>
+    <col min="12983" max="12983" width="4.75" style="1" customWidth="1"/>
+    <col min="12984" max="12988" width="5.625" style="1" customWidth="1"/>
+    <col min="12989" max="12989" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12990" max="12990" width="11.75" style="1" customWidth="1"/>
+    <col min="12991" max="12991" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12992" max="12992" width="11.75" style="1" customWidth="1"/>
+    <col min="12993" max="13006" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13007" max="13018" width="6.25" style="1" customWidth="1"/>
+    <col min="13019" max="13019" width="5.875" style="1" customWidth="1"/>
+    <col min="13020" max="13021" width="6.25" style="1" customWidth="1"/>
+    <col min="13022" max="13067" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13068" max="13068" width="8.5" style="1" customWidth="1"/>
+    <col min="13069" max="13069" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13070" max="13070" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13071" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13072" max="13072" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13073" max="13231" width="9" style="1"/>
+    <col min="13232" max="13232" width="4.125" style="1" customWidth="1"/>
+    <col min="13233" max="13233" width="28" style="1" customWidth="1"/>
+    <col min="13234" max="13234" width="5.625" style="1" customWidth="1"/>
+    <col min="13235" max="13235" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13236" max="13236" width="5.375" style="1" customWidth="1"/>
+    <col min="13237" max="13237" width="6.5" style="1" customWidth="1"/>
+    <col min="13238" max="13238" width="11" style="1" customWidth="1"/>
+    <col min="13239" max="13239" width="4.75" style="1" customWidth="1"/>
+    <col min="13240" max="13244" width="5.625" style="1" customWidth="1"/>
+    <col min="13245" max="13245" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13246" max="13246" width="11.75" style="1" customWidth="1"/>
+    <col min="13247" max="13247" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13248" max="13248" width="11.75" style="1" customWidth="1"/>
+    <col min="13249" max="13262" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13263" max="13274" width="6.25" style="1" customWidth="1"/>
+    <col min="13275" max="13275" width="5.875" style="1" customWidth="1"/>
+    <col min="13276" max="13277" width="6.25" style="1" customWidth="1"/>
+    <col min="13278" max="13323" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13324" max="13324" width="8.5" style="1" customWidth="1"/>
+    <col min="13325" max="13325" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13326" max="13326" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13327" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13328" max="13328" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13329" max="13487" width="9" style="1"/>
+    <col min="13488" max="13488" width="4.125" style="1" customWidth="1"/>
+    <col min="13489" max="13489" width="28" style="1" customWidth="1"/>
+    <col min="13490" max="13490" width="5.625" style="1" customWidth="1"/>
+    <col min="13491" max="13491" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13492" max="13492" width="5.375" style="1" customWidth="1"/>
+    <col min="13493" max="13493" width="6.5" style="1" customWidth="1"/>
+    <col min="13494" max="13494" width="11" style="1" customWidth="1"/>
+    <col min="13495" max="13495" width="4.75" style="1" customWidth="1"/>
+    <col min="13496" max="13500" width="5.625" style="1" customWidth="1"/>
+    <col min="13501" max="13501" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13502" max="13502" width="11.75" style="1" customWidth="1"/>
+    <col min="13503" max="13503" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13504" max="13504" width="11.75" style="1" customWidth="1"/>
+    <col min="13505" max="13518" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13519" max="13530" width="6.25" style="1" customWidth="1"/>
+    <col min="13531" max="13531" width="5.875" style="1" customWidth="1"/>
+    <col min="13532" max="13533" width="6.25" style="1" customWidth="1"/>
+    <col min="13534" max="13579" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13580" max="13580" width="8.5" style="1" customWidth="1"/>
+    <col min="13581" max="13581" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13582" max="13582" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13583" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13584" max="13584" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13585" max="13743" width="9" style="1"/>
+    <col min="13744" max="13744" width="4.125" style="1" customWidth="1"/>
+    <col min="13745" max="13745" width="28" style="1" customWidth="1"/>
+    <col min="13746" max="13746" width="5.625" style="1" customWidth="1"/>
+    <col min="13747" max="13747" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13748" max="13748" width="5.375" style="1" customWidth="1"/>
+    <col min="13749" max="13749" width="6.5" style="1" customWidth="1"/>
+    <col min="13750" max="13750" width="11" style="1" customWidth="1"/>
+    <col min="13751" max="13751" width="4.75" style="1" customWidth="1"/>
+    <col min="13752" max="13756" width="5.625" style="1" customWidth="1"/>
+    <col min="13757" max="13757" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13758" max="13758" width="11.75" style="1" customWidth="1"/>
+    <col min="13759" max="13759" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13760" max="13760" width="11.75" style="1" customWidth="1"/>
+    <col min="13761" max="13774" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13775" max="13786" width="6.25" style="1" customWidth="1"/>
+    <col min="13787" max="13787" width="5.875" style="1" customWidth="1"/>
+    <col min="13788" max="13789" width="6.25" style="1" customWidth="1"/>
+    <col min="13790" max="13835" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="13836" max="13836" width="8.5" style="1" customWidth="1"/>
+    <col min="13837" max="13837" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13838" max="13838" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="13839" max="13839" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13840" max="13840" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13841" max="13999" width="9" style="1"/>
+    <col min="14000" max="14000" width="4.125" style="1" customWidth="1"/>
+    <col min="14001" max="14001" width="28" style="1" customWidth="1"/>
+    <col min="14002" max="14002" width="5.625" style="1" customWidth="1"/>
+    <col min="14003" max="14003" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14004" max="14004" width="5.375" style="1" customWidth="1"/>
+    <col min="14005" max="14005" width="6.5" style="1" customWidth="1"/>
+    <col min="14006" max="14006" width="11" style="1" customWidth="1"/>
+    <col min="14007" max="14007" width="4.75" style="1" customWidth="1"/>
+    <col min="14008" max="14012" width="5.625" style="1" customWidth="1"/>
+    <col min="14013" max="14013" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14014" max="14014" width="11.75" style="1" customWidth="1"/>
+    <col min="14015" max="14015" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14016" max="14016" width="11.75" style="1" customWidth="1"/>
+    <col min="14017" max="14030" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="14031" max="14042" width="6.25" style="1" customWidth="1"/>
+    <col min="14043" max="14043" width="5.875" style="1" customWidth="1"/>
+    <col min="14044" max="14045" width="6.25" style="1" customWidth="1"/>
+    <col min="14046" max="14091" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="14092" max="14092" width="8.5" style="1" customWidth="1"/>
+    <col min="14093" max="14093" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14094" max="14094" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14095" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14096" max="14096" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14097" max="14255" width="9" style="1"/>
+    <col min="14256" max="14256" width="4.125" style="1" customWidth="1"/>
+    <col min="14257" max="14257" width="28" style="1" customWidth="1"/>
+    <col min="14258" max="14258" width="5.625" style="1" customWidth="1"/>
+    <col min="14259" max="14259" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14260" max="14260" width="5.375" style="1" customWidth="1"/>
+    <col min="14261" max="14261" width="6.5" style="1" customWidth="1"/>
+    <col min="14262" max="14262" width="11" style="1" customWidth="1"/>
+    <col min="14263" max="14263" width="4.75" style="1" customWidth="1"/>
+    <col min="14264" max="14268" width="5.625" style="1" customWidth="1"/>
+    <col min="14269" max="14269" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14270" max="14270" width="11.75" style="1" customWidth="1"/>
+    <col min="14271" max="14271" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14272" max="14272" width="11.75" style="1" customWidth="1"/>
+    <col min="14273" max="14286" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="14287" max="14298" width="6.25" style="1" customWidth="1"/>
+    <col min="14299" max="14299" width="5.875" style="1" customWidth="1"/>
+    <col min="14300" max="14301" width="6.25" style="1" customWidth="1"/>
+    <col min="14302" max="14347" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="14348" max="14348" width="8.5" style="1" customWidth="1"/>
+    <col min="14349" max="14349" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14350" max="14350" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14351" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14352" max="14352" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14353" max="14511" width="9" style="1"/>
+    <col min="14512" max="14512" width="4.125" style="1" customWidth="1"/>
+    <col min="14513" max="14513" width="28" style="1" customWidth="1"/>
+    <col min="14514" max="14514" width="5.625" style="1" customWidth="1"/>
+    <col min="14515" max="14515" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14516" max="14516" width="5.375" style="1" customWidth="1"/>
+    <col min="14517" max="14517" width="6.5" style="1" customWidth="1"/>
+    <col min="14518" max="14518" width="11" style="1" customWidth="1"/>
+    <col min="14519" max="14519" width="4.75" style="1" customWidth="1"/>
+    <col min="14520" max="14524" width="5.625" style="1" customWidth="1"/>
+    <col min="14525" max="14525" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14526" max="14526" width="11.75" style="1" customWidth="1"/>
+    <col min="14527" max="14527" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14528" max="14528" width="11.75" style="1" customWidth="1"/>
+    <col min="14529" max="14542" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="14543" max="14554" width="6.25" style="1" customWidth="1"/>
+    <col min="14555" max="14555" width="5.875" style="1" customWidth="1"/>
+    <col min="14556" max="14557" width="6.25" style="1" customWidth="1"/>
+    <col min="14558" max="14603" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="14604" max="14604" width="8.5" style="1" customWidth="1"/>
+    <col min="14605" max="14605" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14606" max="14606" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14607" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14608" max="14608" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14609" max="14767" width="9" style="1"/>
+    <col min="14768" max="14768" width="4.125" style="1" customWidth="1"/>
+    <col min="14769" max="14769" width="28" style="1" customWidth="1"/>
+    <col min="14770" max="14770" width="5.625" style="1" customWidth="1"/>
+    <col min="14771" max="14771" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14772" max="14772" width="5.375" style="1" customWidth="1"/>
+    <col min="14773" max="14773" width="6.5" style="1" customWidth="1"/>
+    <col min="14774" max="14774" width="11" style="1" customWidth="1"/>
+    <col min="14775" max="14775" width="4.75" style="1" customWidth="1"/>
+    <col min="14776" max="14780" width="5.625" style="1" customWidth="1"/>
+    <col min="14781" max="14781" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14782" max="14782" width="11.75" style="1" customWidth="1"/>
+    <col min="14783" max="14783" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14784" max="14784" width="11.75" style="1" customWidth="1"/>
+    <col min="14785" max="14798" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="14799" max="14810" width="6.25" style="1" customWidth="1"/>
+    <col min="14811" max="14811" width="5.875" style="1" customWidth="1"/>
+    <col min="14812" max="14813" width="6.25" style="1" customWidth="1"/>
+    <col min="14814" max="14859" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="14860" max="14860" width="8.5" style="1" customWidth="1"/>
+    <col min="14861" max="14861" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14862" max="14862" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="14863" max="14863" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14864" max="14864" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14865" max="15023" width="9" style="1"/>
+    <col min="15024" max="15024" width="4.125" style="1" customWidth="1"/>
+    <col min="15025" max="15025" width="28" style="1" customWidth="1"/>
+    <col min="15026" max="15026" width="5.625" style="1" customWidth="1"/>
+    <col min="15027" max="15027" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15028" max="15028" width="5.375" style="1" customWidth="1"/>
+    <col min="15029" max="15029" width="6.5" style="1" customWidth="1"/>
+    <col min="15030" max="15030" width="11" style="1" customWidth="1"/>
+    <col min="15031" max="15031" width="4.75" style="1" customWidth="1"/>
+    <col min="15032" max="15036" width="5.625" style="1" customWidth="1"/>
+    <col min="15037" max="15037" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15038" max="15038" width="11.75" style="1" customWidth="1"/>
+    <col min="15039" max="15039" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15040" max="15040" width="11.75" style="1" customWidth="1"/>
+    <col min="15041" max="15054" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="15055" max="15066" width="6.25" style="1" customWidth="1"/>
+    <col min="15067" max="15067" width="5.875" style="1" customWidth="1"/>
+    <col min="15068" max="15069" width="6.25" style="1" customWidth="1"/>
+    <col min="15070" max="15115" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="15116" max="15116" width="8.5" style="1" customWidth="1"/>
+    <col min="15117" max="15117" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15118" max="15118" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15119" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15120" max="15120" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15121" max="15279" width="9" style="1"/>
+    <col min="15280" max="15280" width="4.125" style="1" customWidth="1"/>
+    <col min="15281" max="15281" width="28" style="1" customWidth="1"/>
+    <col min="15282" max="15282" width="5.625" style="1" customWidth="1"/>
+    <col min="15283" max="15283" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15284" max="15284" width="5.375" style="1" customWidth="1"/>
+    <col min="15285" max="15285" width="6.5" style="1" customWidth="1"/>
+    <col min="15286" max="15286" width="11" style="1" customWidth="1"/>
+    <col min="15287" max="15287" width="4.75" style="1" customWidth="1"/>
+    <col min="15288" max="15292" width="5.625" style="1" customWidth="1"/>
+    <col min="15293" max="15293" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15294" max="15294" width="11.75" style="1" customWidth="1"/>
+    <col min="15295" max="15295" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15296" max="15296" width="11.75" style="1" customWidth="1"/>
+    <col min="15297" max="15310" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="15311" max="15322" width="6.25" style="1" customWidth="1"/>
+    <col min="15323" max="15323" width="5.875" style="1" customWidth="1"/>
+    <col min="15324" max="15325" width="6.25" style="1" customWidth="1"/>
+    <col min="15326" max="15371" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="15372" max="15372" width="8.5" style="1" customWidth="1"/>
+    <col min="15373" max="15373" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15374" max="15374" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15375" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15376" max="15376" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15377" max="15535" width="9" style="1"/>
+    <col min="15536" max="15536" width="4.125" style="1" customWidth="1"/>
+    <col min="15537" max="15537" width="28" style="1" customWidth="1"/>
+    <col min="15538" max="15538" width="5.625" style="1" customWidth="1"/>
+    <col min="15539" max="15539" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15540" max="15540" width="5.375" style="1" customWidth="1"/>
+    <col min="15541" max="15541" width="6.5" style="1" customWidth="1"/>
+    <col min="15542" max="15542" width="11" style="1" customWidth="1"/>
+    <col min="15543" max="15543" width="4.75" style="1" customWidth="1"/>
+    <col min="15544" max="15548" width="5.625" style="1" customWidth="1"/>
+    <col min="15549" max="15549" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15550" max="15550" width="11.75" style="1" customWidth="1"/>
+    <col min="15551" max="15551" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15552" max="15552" width="11.75" style="1" customWidth="1"/>
+    <col min="15553" max="15566" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="15567" max="15578" width="6.25" style="1" customWidth="1"/>
+    <col min="15579" max="15579" width="5.875" style="1" customWidth="1"/>
+    <col min="15580" max="15581" width="6.25" style="1" customWidth="1"/>
+    <col min="15582" max="15627" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="15628" max="15628" width="8.5" style="1" customWidth="1"/>
+    <col min="15629" max="15629" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15630" max="15630" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15631" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15632" max="15632" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15633" max="15791" width="9" style="1"/>
+    <col min="15792" max="15792" width="4.125" style="1" customWidth="1"/>
+    <col min="15793" max="15793" width="28" style="1" customWidth="1"/>
+    <col min="15794" max="15794" width="5.625" style="1" customWidth="1"/>
+    <col min="15795" max="15795" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15796" max="15796" width="5.375" style="1" customWidth="1"/>
+    <col min="15797" max="15797" width="6.5" style="1" customWidth="1"/>
+    <col min="15798" max="15798" width="11" style="1" customWidth="1"/>
+    <col min="15799" max="15799" width="4.75" style="1" customWidth="1"/>
+    <col min="15800" max="15804" width="5.625" style="1" customWidth="1"/>
+    <col min="15805" max="15805" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15806" max="15806" width="11.75" style="1" customWidth="1"/>
+    <col min="15807" max="15807" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15808" max="15808" width="11.75" style="1" customWidth="1"/>
+    <col min="15809" max="15822" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="15823" max="15834" width="6.25" style="1" customWidth="1"/>
+    <col min="15835" max="15835" width="5.875" style="1" customWidth="1"/>
+    <col min="15836" max="15837" width="6.25" style="1" customWidth="1"/>
+    <col min="15838" max="15883" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="15884" max="15884" width="8.5" style="1" customWidth="1"/>
+    <col min="15885" max="15885" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15886" max="15886" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="15887" max="15887" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15888" max="15888" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15889" max="16047" width="9" style="1"/>
+    <col min="16048" max="16048" width="4.125" style="1" customWidth="1"/>
+    <col min="16049" max="16049" width="28" style="1" customWidth="1"/>
+    <col min="16050" max="16050" width="5.625" style="1" customWidth="1"/>
+    <col min="16051" max="16051" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16052" max="16052" width="5.375" style="1" customWidth="1"/>
+    <col min="16053" max="16053" width="6.5" style="1" customWidth="1"/>
+    <col min="16054" max="16054" width="11" style="1" customWidth="1"/>
+    <col min="16055" max="16055" width="4.75" style="1" customWidth="1"/>
+    <col min="16056" max="16060" width="5.625" style="1" customWidth="1"/>
+    <col min="16061" max="16061" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16062" max="16062" width="11.75" style="1" customWidth="1"/>
+    <col min="16063" max="16063" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16064" max="16064" width="11.75" style="1" customWidth="1"/>
+    <col min="16065" max="16078" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="16079" max="16090" width="6.25" style="1" customWidth="1"/>
+    <col min="16091" max="16091" width="5.875" style="1" customWidth="1"/>
+    <col min="16092" max="16093" width="6.25" style="1" customWidth="1"/>
+    <col min="16094" max="16139" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="16140" max="16140" width="8.5" style="1" customWidth="1"/>
+    <col min="16141" max="16141" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16142" max="16142" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16143" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16144" max="16144" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16145" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="29.25" customHeight="1">
+      <c r="A1" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+    </row>
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="17.45" customHeight="1">
+      <c r="A2" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="135" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="124"/>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="138" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="126" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="141"/>
+    </row>
+    <row r="3" spans="1:16" s="6" customFormat="1" ht="17.45" customHeight="1">
+      <c r="A3" s="133"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="135"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="139"/>
+      <c r="K3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="9">
+        <v>265</v>
+      </c>
+      <c r="M3" s="9">
+        <v>266</v>
+      </c>
+      <c r="N3" s="9">
+        <v>267</v>
+      </c>
+      <c r="O3" s="9">
+        <v>268</v>
+      </c>
+      <c r="P3" s="9">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17.45" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+    </row>
+    <row r="5" spans="1:16" ht="17.45" customHeight="1">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="121" t="s">
+        <v>227</v>
+      </c>
+      <c r="I5" s="53">
+        <v>866.74400000000003</v>
+      </c>
+      <c r="J5" s="21">
+        <v>33200</v>
+      </c>
+      <c r="K5" s="25">
+        <v>28775900.800000001</v>
+      </c>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+    </row>
+    <row r="6" spans="1:16" ht="17.45" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" s="53">
+        <v>866.74</v>
+      </c>
+      <c r="J6" s="21">
+        <v>30000</v>
+      </c>
+      <c r="K6" s="25">
+        <v>26002200</v>
+      </c>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+    </row>
+    <row r="7" spans="1:16" ht="17.45" customHeight="1">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="I7" s="142">
+        <v>24696.3</v>
+      </c>
+      <c r="J7" s="21">
+        <v>8000</v>
+      </c>
+      <c r="K7" s="25">
+        <v>197570400</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" spans="1:16" s="38" customFormat="1" ht="17.45" customHeight="1">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="I8" s="143">
+        <v>6550.71</v>
+      </c>
+      <c r="J8" s="21">
+        <v>58600</v>
+      </c>
+      <c r="K8" s="25">
+        <v>383871606</v>
+      </c>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+    </row>
+    <row r="9" spans="1:16" s="38" customFormat="1" ht="17.45" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="I9" s="143">
+        <v>7000.68</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+    </row>
+    <row r="10" spans="1:16" s="38" customFormat="1" ht="17.45" customHeight="1">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="I10" s="53">
+        <v>349.03</v>
+      </c>
+      <c r="J10" s="21">
+        <v>47100</v>
+      </c>
+      <c r="K10" s="25">
+        <v>16439312.999999998</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" s="38" customFormat="1" ht="17.45" customHeight="1">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="I11" s="53">
+        <v>491.06</v>
+      </c>
+      <c r="J11" s="21">
+        <v>2016</v>
+      </c>
+      <c r="K11" s="25">
+        <v>989976.96</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" s="38" customFormat="1" ht="17.45" customHeight="1">
+      <c r="A12" s="11">
+        <v>8</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="I12" s="53">
+        <v>755.18</v>
+      </c>
+      <c r="J12" s="21">
+        <v>16800</v>
+      </c>
+      <c r="K12" s="25">
+        <v>12687024</v>
+      </c>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" ht="17.45" customHeight="1">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="I13" s="53">
+        <v>57685.38</v>
+      </c>
+      <c r="J13" s="21">
+        <v>9800</v>
+      </c>
+      <c r="K13" s="25">
+        <v>565316724</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" ht="17.45" customHeight="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="I14" s="53">
+        <v>57366.68</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+    </row>
+    <row r="15" spans="1:16" ht="17.45" customHeight="1">
+      <c r="A15" s="11">
+        <v>10</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="I15" s="53">
+        <v>901.95</v>
+      </c>
+      <c r="J15" s="21">
+        <v>96000</v>
+      </c>
+      <c r="K15" s="25">
+        <v>86587200</v>
+      </c>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+    </row>
+    <row r="16" spans="1:16" s="48" customFormat="1" ht="17.45" customHeight="1">
+      <c r="A16" s="44"/>
+      <c r="B16" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="I16" s="53">
+        <v>679.19</v>
+      </c>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+    </row>
+    <row r="17" spans="1:16" s="48" customFormat="1" ht="17.45" customHeight="1">
+      <c r="A17" s="44"/>
+      <c r="B17" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="I17" s="53">
+        <v>679.19</v>
+      </c>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+    </row>
+    <row r="18" spans="1:16" ht="17.45" customHeight="1">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="I18" s="53">
+        <v>124783.2</v>
+      </c>
+      <c r="J18" s="21">
+        <v>1860</v>
+      </c>
+      <c r="K18" s="25">
+        <v>232096752</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+    </row>
+    <row r="19" spans="1:16" ht="17.45" customHeight="1">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="I19" s="53">
+        <v>11421.3</v>
+      </c>
+      <c r="J19" s="21">
+        <v>280</v>
+      </c>
+      <c r="K19" s="25">
+        <v>3197964</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+    </row>
+    <row r="20" spans="1:16" ht="17.45" customHeight="1">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="I20" s="53">
+        <v>11421.3</v>
+      </c>
+      <c r="J20" s="21">
+        <v>820</v>
+      </c>
+      <c r="K20" s="25">
+        <v>9365466</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+    </row>
+    <row r="21" spans="1:16" s="48" customFormat="1" ht="17.45" customHeight="1">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="68">
+        <v>40117</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="I21" s="53">
+        <v>32997.99</v>
+      </c>
+      <c r="J21" s="21">
+        <v>100</v>
+      </c>
+      <c r="K21" s="25">
+        <v>3299799</v>
+      </c>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+    </row>
+    <row r="22" spans="1:16" ht="17.45" customHeight="1">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="68">
+        <v>970517</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="I22" s="53">
+        <v>32997.99</v>
+      </c>
+      <c r="J22" s="21">
+        <v>1055</v>
+      </c>
+      <c r="K22" s="25">
+        <v>34812879.449999996</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+    </row>
+    <row r="23" spans="1:16" ht="17.45" customHeight="1">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="68">
+        <v>1280517</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="I23" s="53">
+        <v>32997.99</v>
+      </c>
+      <c r="J23" s="21">
+        <v>445</v>
+      </c>
+      <c r="K23" s="25">
+        <v>14684105.549999999</v>
+      </c>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+    </row>
+    <row r="24" spans="1:16" s="48" customFormat="1" ht="17.45" customHeight="1">
+      <c r="A24" s="44"/>
+      <c r="B24" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="68">
+        <v>1280517</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="I24" s="53">
+        <v>30570.5</v>
+      </c>
+      <c r="K24" s="25">
+        <v>0</v>
+      </c>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+    </row>
+    <row r="25" spans="1:16" ht="17.45" customHeight="1">
+      <c r="A25" s="11">
+        <v>22</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="I25" s="53">
+        <v>2084.98</v>
+      </c>
+      <c r="J25" s="21">
+        <v>63500</v>
+      </c>
+      <c r="K25" s="25">
+        <v>132396230</v>
+      </c>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+    </row>
+    <row r="26" spans="1:16" s="48" customFormat="1" ht="17.45" customHeight="1">
+      <c r="A26" s="44"/>
+      <c r="B26" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="I26" s="53">
+        <v>2124.5100000000002</v>
+      </c>
+      <c r="K26" s="46">
+        <v>0</v>
+      </c>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+    </row>
+    <row r="27" spans="1:16" ht="17.45" customHeight="1">
+      <c r="A27" s="11">
+        <v>23</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="I27" s="53">
+        <v>679.36699999999996</v>
+      </c>
+      <c r="J27" s="21">
+        <v>19800</v>
+      </c>
+      <c r="K27" s="25">
+        <v>13451466.6</v>
+      </c>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+    </row>
+    <row r="28" spans="1:16" ht="17.45" customHeight="1">
+      <c r="A28" s="11">
+        <v>24</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I28" s="53">
+        <v>799.49</v>
+      </c>
+      <c r="J28" s="21">
+        <v>84000</v>
+      </c>
+      <c r="K28" s="25">
+        <v>67157160</v>
+      </c>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+    </row>
+    <row r="29" spans="1:16" s="48" customFormat="1" ht="17.45" customHeight="1">
+      <c r="A29" s="44"/>
+      <c r="B29" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="I29" s="144">
+        <v>418.1</v>
+      </c>
+      <c r="J29" s="45"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+    </row>
+    <row r="30" spans="1:16" s="48" customFormat="1" ht="17.45" customHeight="1">
+      <c r="A30" s="44"/>
+      <c r="B30" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="I30" s="144">
+        <v>418.1</v>
+      </c>
+      <c r="J30" s="45"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+    </row>
+    <row r="31" spans="1:16" ht="14.25">
+      <c r="A31" s="11">
+        <v>11</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="I31" s="53">
+        <v>844.8</v>
+      </c>
+      <c r="J31" s="21">
+        <v>84000</v>
+      </c>
+      <c r="K31" s="25">
+        <v>70963200</v>
+      </c>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+    </row>
+    <row r="32" spans="1:16" ht="14.25">
+      <c r="A32" s="11">
+        <v>12</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="I32" s="53">
+        <v>989.08600000000001</v>
+      </c>
+      <c r="J32" s="21">
+        <v>42000</v>
+      </c>
+      <c r="K32" s="25">
+        <v>41541612</v>
+      </c>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+    </row>
+    <row r="33" spans="1:19" ht="17.45" customHeight="1">
+      <c r="A33" s="11">
+        <v>1</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="68">
+        <v>15017</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="I33" s="53">
+        <v>38.997</v>
+      </c>
+      <c r="J33" s="21">
+        <v>22500</v>
+      </c>
+      <c r="K33" s="25">
+        <v>877432.5</v>
+      </c>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="R33" s="1">
+        <v>39</v>
+      </c>
+      <c r="S33" s="1">
+        <f>R33*J33</f>
+        <v>877500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="17.45" customHeight="1">
+      <c r="A34" s="11"/>
+      <c r="B34" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="106" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="I34" s="143">
+        <v>393</v>
+      </c>
+      <c r="J34" s="21"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+    </row>
+    <row r="35" spans="1:19" ht="17.45" customHeight="1">
+      <c r="A35" s="11">
+        <v>4</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="68">
+        <v>518005</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="I35" s="145">
+        <v>4298</v>
+      </c>
+      <c r="J35" s="21">
+        <v>10000</v>
+      </c>
+      <c r="K35" s="25">
+        <v>42980000</v>
+      </c>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+    </row>
+    <row r="36" spans="1:19" ht="17.45" customHeight="1">
+      <c r="A36" s="11">
+        <v>8</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="I36" s="53">
+        <f>1100*1.05</f>
+        <v>1155</v>
+      </c>
+      <c r="J36" s="21">
+        <v>568000</v>
+      </c>
+      <c r="K36" s="25">
+        <v>656040000</v>
+      </c>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+    </row>
+    <row r="37" spans="1:19" ht="17.45" customHeight="1">
+      <c r="A37" s="11"/>
+      <c r="B37" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="I37" s="53">
+        <f>1100*1.05</f>
+        <v>1155</v>
+      </c>
+      <c r="J37" s="21"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+    </row>
+    <row r="38" spans="1:19" ht="17.45" customHeight="1">
+      <c r="A38" s="11">
+        <v>9</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I38" s="53">
+        <v>565</v>
+      </c>
+      <c r="J38" s="21">
+        <v>90000</v>
+      </c>
+      <c r="K38" s="25">
+        <v>50850000</v>
+      </c>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+    </row>
+    <row r="39" spans="1:19" s="48" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A39" s="11">
+        <v>17</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="68">
+        <v>18102</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="I39" s="53">
+        <v>1900</v>
+      </c>
+      <c r="J39" s="21">
+        <v>36000</v>
+      </c>
+      <c r="K39" s="25">
+        <v>68400000</v>
+      </c>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+    </row>
+    <row r="40" spans="1:19" s="48" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A40" s="11">
+        <v>18</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="68">
+        <v>18110</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="I40" s="53">
+        <v>1900</v>
+      </c>
+      <c r="J40" s="21">
+        <v>237096</v>
+      </c>
+      <c r="K40" s="25">
+        <v>450482400</v>
+      </c>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+    </row>
+    <row r="41" spans="1:19" s="48" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A41" s="11">
+        <v>19</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="68">
+        <v>18111</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="I41" s="53">
+        <v>1900</v>
+      </c>
+      <c r="J41" s="21">
+        <v>104</v>
+      </c>
+      <c r="K41" s="25">
+        <v>197600</v>
+      </c>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+    </row>
+    <row r="42" spans="1:19" ht="14.25">
+      <c r="A42" s="11">
+        <v>22</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="68">
+        <v>18106</v>
+      </c>
+      <c r="G42" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="I42" s="53">
+        <v>1096</v>
+      </c>
+      <c r="J42" s="21">
+        <v>47144</v>
+      </c>
+      <c r="K42" s="25">
+        <v>51669824</v>
+      </c>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+    </row>
+    <row r="43" spans="1:19" ht="14.25">
+      <c r="A43" s="11">
+        <v>23</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="68">
+        <v>18107</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="I43" s="53">
+        <v>1096</v>
+      </c>
+      <c r="J43" s="21">
+        <v>36000</v>
+      </c>
+      <c r="K43" s="25">
+        <v>39456000</v>
+      </c>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+    </row>
+    <row r="44" spans="1:19" ht="14.25">
+      <c r="A44" s="11">
+        <v>25</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="68">
+        <v>18111</v>
+      </c>
+      <c r="G44" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="I44" s="53">
+        <v>1096</v>
+      </c>
+      <c r="J44" s="21">
+        <v>20000</v>
+      </c>
+      <c r="K44" s="25">
+        <v>21920000</v>
+      </c>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+    </row>
+    <row r="45" spans="1:19" ht="17.45" customHeight="1">
+      <c r="A45" s="11">
+        <v>1</v>
+      </c>
+      <c r="B45" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="71"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="53">
+        <v>310</v>
+      </c>
+      <c r="J45" s="21">
+        <v>2304</v>
+      </c>
+      <c r="K45" s="25">
+        <v>714240</v>
+      </c>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+    </row>
+    <row r="46" spans="1:19" ht="17.45" customHeight="1">
+      <c r="A46" s="11">
+        <v>2</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="103" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="71"/>
+      <c r="G46" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="I46" s="53">
+        <v>4860</v>
+      </c>
+      <c r="J46" s="21">
+        <v>1000</v>
+      </c>
+      <c r="K46" s="25">
+        <v>4860000</v>
+      </c>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+    </row>
+    <row r="47" spans="1:19" ht="17.45" customHeight="1">
+      <c r="A47" s="11">
+        <v>3</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="71"/>
+      <c r="G47" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="I47" s="53">
+        <v>8850</v>
+      </c>
+      <c r="J47" s="21">
+        <v>9000</v>
+      </c>
+      <c r="K47" s="25">
+        <v>79650000</v>
+      </c>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+    </row>
+    <row r="48" spans="1:19" ht="18" customHeight="1">
+      <c r="A48" s="11">
+        <v>4</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="71"/>
+      <c r="G48" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="I48" s="53">
+        <v>228984.57</v>
+      </c>
+      <c r="J48" s="21">
+        <v>2100</v>
+      </c>
+      <c r="K48" s="25">
+        <v>480867597</v>
+      </c>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+    </row>
+    <row r="49" spans="1:16" ht="18" customHeight="1">
+      <c r="A49" s="11">
+        <v>5</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="71"/>
+      <c r="G49" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="I49" s="53">
+        <v>228984.57</v>
+      </c>
+      <c r="J49" s="21">
+        <v>1150</v>
+      </c>
+      <c r="K49" s="25">
+        <v>263332255.5</v>
+      </c>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+    </row>
+    <row r="50" spans="1:16" s="48" customFormat="1" ht="18" customHeight="1">
+      <c r="A50" s="44"/>
+      <c r="B50" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="71"/>
+      <c r="G50" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="I50" s="144">
+        <v>228984.57</v>
+      </c>
+      <c r="K50" s="46"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+    </row>
+    <row r="51" spans="1:16" ht="17.45" hidden="1" customHeight="1">
+      <c r="A51" s="11"/>
+      <c r="B51" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="I51" s="15"/>
+      <c r="J51" s="21">
+        <v>0</v>
+      </c>
+      <c r="K51" s="25">
+        <v>0</v>
+      </c>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+    </row>
+    <row r="52" spans="1:16" s="72" customFormat="1" ht="17.45" hidden="1" customHeight="1">
+      <c r="A52" s="68"/>
+      <c r="B52" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="71"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="I52" s="15">
+        <v>0</v>
+      </c>
+      <c r="J52" s="21">
+        <v>370</v>
+      </c>
+      <c r="K52" s="25">
+        <v>0</v>
+      </c>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="70"/>
+      <c r="P52" s="70"/>
+    </row>
+    <row r="53" spans="1:16" s="72" customFormat="1" ht="17.45" hidden="1" customHeight="1">
+      <c r="A53" s="68"/>
+      <c r="B53" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="71"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="21">
+        <v>195</v>
+      </c>
+      <c r="K53" s="25">
+        <v>0</v>
+      </c>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="70"/>
+    </row>
+    <row r="54" spans="1:16" s="72" customFormat="1" ht="17.45" hidden="1" customHeight="1">
+      <c r="A54" s="68"/>
+      <c r="B54" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="49"/>
+      <c r="E54" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="71"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="I54" s="73"/>
+      <c r="J54" s="21">
+        <v>1750</v>
+      </c>
+      <c r="K54" s="25">
+        <v>0</v>
+      </c>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="70"/>
+    </row>
+    <row r="55" spans="1:16" s="72" customFormat="1" ht="17.45" hidden="1" customHeight="1">
+      <c r="A55" s="68"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="I55" s="73"/>
+      <c r="J55" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="K55" s="75">
+        <v>0</v>
+      </c>
+      <c r="L55" s="75"/>
+      <c r="M55" s="75"/>
+      <c r="N55" s="75"/>
+      <c r="O55" s="75"/>
+      <c r="P55" s="75"/>
+    </row>
+    <row r="56" spans="1:16" s="84" customFormat="1" ht="17.45" customHeight="1">
+      <c r="A56" s="76"/>
+      <c r="B56" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="79"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="83">
+        <v>4153504328.3599997</v>
+      </c>
+      <c r="L56" s="83"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="83"/>
+      <c r="P56" s="83"/>
+    </row>
+    <row r="57" spans="1:16" ht="17.45" customHeight="1">
+      <c r="K57" s="89">
+        <v>4153504328.3599997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="17.45" customHeight="1">
+      <c r="K58" s="85">
+        <f>K56-K57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="17.45" customHeight="1">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="1:16" ht="17.45" customHeight="1">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="1:16" ht="17.45" customHeight="1">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+    </row>
+    <row r="62" spans="1:16" ht="17.25"/>
+    <row r="63" spans="1:16" ht="17.25"/>
+    <row r="64" spans="1:16" ht="17.25"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="L2:P2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E51"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -9378,7 +13071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -9604,7 +13297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y27"/>
   <sheetViews>
@@ -11685,7 +15378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
@@ -12967,7 +16660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY3"/>
   <sheetViews>
@@ -13277,12 +16970,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -13473,8 +17166,8 @@
       <c r="E3" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="119">
-        <v>867</v>
+      <c r="F3" s="146">
+        <v>866.74400000000003</v>
       </c>
       <c r="G3" s="119" t="s">
         <v>165</v>
@@ -13622,7 +17315,7 @@
       <c r="E4" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="119">
+      <c r="F4" s="146">
         <v>866.74</v>
       </c>
       <c r="G4" s="119" t="s">
@@ -13771,7 +17464,7 @@
       <c r="E5" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="119">
+      <c r="F5" s="147">
         <v>24696.3</v>
       </c>
       <c r="G5" s="119" t="s">
@@ -13920,7 +17613,7 @@
       <c r="E6" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="119">
+      <c r="F6" s="148">
         <v>6550.71</v>
       </c>
       <c r="G6" s="119" t="s">
@@ -14069,7 +17762,7 @@
       <c r="E7" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="119">
+      <c r="F7" s="148">
         <v>7000.68</v>
       </c>
       <c r="G7" s="119" t="s">
@@ -14218,7 +17911,7 @@
       <c r="E8" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="119">
+      <c r="F8" s="146">
         <v>349.03</v>
       </c>
       <c r="G8" s="119" t="s">
@@ -14367,7 +18060,7 @@
       <c r="E9" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="119">
+      <c r="F9" s="146">
         <v>491.06</v>
       </c>
       <c r="G9" s="119" t="s">
@@ -14516,7 +18209,7 @@
       <c r="E10" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="119">
+      <c r="F10" s="146">
         <v>755.18</v>
       </c>
       <c r="G10" s="119" t="s">
@@ -14665,8 +18358,8 @@
       <c r="E11" t="s">
         <v>165</v>
       </c>
-      <c r="F11" s="119">
-        <v>57685</v>
+      <c r="F11" s="146">
+        <v>57685.38</v>
       </c>
       <c r="G11" s="119" t="s">
         <v>165</v>
@@ -14814,7 +18507,7 @@
       <c r="E12" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="119">
+      <c r="F12" s="146">
         <v>57366.68</v>
       </c>
       <c r="G12" s="119" t="s">
@@ -14963,7 +18656,7 @@
       <c r="E13" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="119">
+      <c r="F13" s="146">
         <v>901.95</v>
       </c>
       <c r="G13" s="119" t="s">
@@ -15112,7 +18805,7 @@
       <c r="E14" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="119">
+      <c r="F14" s="146">
         <v>679.19</v>
       </c>
       <c r="G14" s="119" t="s">
@@ -15261,7 +18954,7 @@
       <c r="E15" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="119">
+      <c r="F15" s="146">
         <v>679.19</v>
       </c>
       <c r="G15" s="119" t="s">
@@ -15410,7 +19103,7 @@
       <c r="E16" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="119">
+      <c r="F16" s="146">
         <v>124783.2</v>
       </c>
       <c r="G16" s="119" t="s">
@@ -15559,8 +19252,8 @@
       <c r="E17" t="s">
         <v>165</v>
       </c>
-      <c r="F17" s="119">
-        <v>11421</v>
+      <c r="F17" s="146">
+        <v>11421.3</v>
       </c>
       <c r="G17" s="119" t="s">
         <v>165</v>
@@ -15708,7 +19401,7 @@
       <c r="E18" t="s">
         <v>165</v>
       </c>
-      <c r="F18" s="119">
+      <c r="F18" s="146">
         <v>11421.3</v>
       </c>
       <c r="G18" s="119" t="s">
@@ -15857,7 +19550,7 @@
       <c r="E19" t="s">
         <v>165</v>
       </c>
-      <c r="F19" s="119">
+      <c r="F19" s="146">
         <v>32997.99</v>
       </c>
       <c r="G19" s="119" t="s">
@@ -16006,7 +19699,7 @@
       <c r="E20" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="119">
+      <c r="F20" s="146">
         <v>32997.99</v>
       </c>
       <c r="G20" s="119" t="s">
@@ -16155,7 +19848,7 @@
       <c r="E21" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="119">
+      <c r="F21" s="146">
         <v>32997.99</v>
       </c>
       <c r="G21" s="119" t="s">
@@ -16304,7 +19997,7 @@
       <c r="E22" t="s">
         <v>165</v>
       </c>
-      <c r="F22" s="119">
+      <c r="F22" s="146">
         <v>30570.5</v>
       </c>
       <c r="G22" s="119" t="s">
@@ -16453,8 +20146,8 @@
       <c r="E23" t="s">
         <v>165</v>
       </c>
-      <c r="F23" s="119">
-        <v>2085</v>
+      <c r="F23" s="146">
+        <v>2084.98</v>
       </c>
       <c r="G23" s="119" t="s">
         <v>165</v>
@@ -16602,7 +20295,7 @@
       <c r="E24" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="119">
+      <c r="F24" s="146">
         <v>2124.5100000000002</v>
       </c>
       <c r="G24" s="119" t="s">
@@ -16751,7 +20444,7 @@
       <c r="E25" t="s">
         <v>165</v>
       </c>
-      <c r="F25" s="119">
+      <c r="F25" s="146">
         <v>679.36699999999996</v>
       </c>
       <c r="G25" s="119" t="s">
@@ -16900,7 +20593,7 @@
       <c r="E26" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="119">
+      <c r="F26" s="146">
         <v>799.49</v>
       </c>
       <c r="G26" s="119" t="s">
@@ -17033,7 +20726,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:49" ht="16.5">
       <c r="A27" t="s">
         <v>272</v>
       </c>
@@ -17049,7 +20742,7 @@
       <c r="E27" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="119">
+      <c r="F27" s="149">
         <v>418.1</v>
       </c>
       <c r="G27" s="119" t="s">
@@ -17182,7 +20875,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:49" ht="16.5">
       <c r="A28" t="s">
         <v>272</v>
       </c>
@@ -17198,7 +20891,7 @@
       <c r="E28" t="s">
         <v>165</v>
       </c>
-      <c r="F28" s="119">
+      <c r="F28" s="149">
         <v>418.1</v>
       </c>
       <c r="G28" s="119" t="s">
@@ -17347,7 +21040,7 @@
       <c r="E29" t="s">
         <v>165</v>
       </c>
-      <c r="F29" s="119">
+      <c r="F29" s="146">
         <v>844.8</v>
       </c>
       <c r="G29" s="119" t="s">
@@ -17496,8 +21189,8 @@
       <c r="E30" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="119">
-        <v>989.09</v>
+      <c r="F30" s="146">
+        <v>989.08600000000001</v>
       </c>
       <c r="G30" s="119" t="s">
         <v>165</v>
@@ -17645,8 +21338,8 @@
       <c r="E31" t="s">
         <v>165</v>
       </c>
-      <c r="F31" s="119">
-        <v>39</v>
+      <c r="F31" s="146">
+        <v>38.997</v>
       </c>
       <c r="G31" s="119" t="s">
         <v>165</v>
@@ -17794,7 +21487,7 @@
       <c r="E32" t="s">
         <v>165</v>
       </c>
-      <c r="F32" s="119">
+      <c r="F32" s="148">
         <v>393</v>
       </c>
       <c r="G32" s="119" t="s">
@@ -17943,7 +21636,7 @@
       <c r="E33" t="s">
         <v>165</v>
       </c>
-      <c r="F33" s="119">
+      <c r="F33" s="150">
         <v>4298</v>
       </c>
       <c r="G33" s="119" t="s">
@@ -18092,7 +21785,8 @@
       <c r="E34" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="119">
+      <c r="F34" s="146">
+        <f>1100*1.05</f>
         <v>1155</v>
       </c>
       <c r="G34" s="119" t="s">
@@ -18241,7 +21935,8 @@
       <c r="E35" t="s">
         <v>165</v>
       </c>
-      <c r="F35" s="119">
+      <c r="F35" s="146">
+        <f>1100*1.05</f>
         <v>1155</v>
       </c>
       <c r="G35" s="119" t="s">
@@ -18390,7 +22085,7 @@
       <c r="E36" t="s">
         <v>165</v>
       </c>
-      <c r="F36" s="119">
+      <c r="F36" s="146">
         <v>565</v>
       </c>
       <c r="G36" s="119" t="s">
@@ -18539,7 +22234,7 @@
       <c r="E37" t="s">
         <v>165</v>
       </c>
-      <c r="F37" s="119">
+      <c r="F37" s="146">
         <v>1900</v>
       </c>
       <c r="G37" s="119" t="s">
@@ -18688,7 +22383,7 @@
       <c r="E38" t="s">
         <v>165</v>
       </c>
-      <c r="F38" s="119">
+      <c r="F38" s="146">
         <v>1900</v>
       </c>
       <c r="G38" s="119" t="s">
@@ -18837,7 +22532,7 @@
       <c r="E39" t="s">
         <v>165</v>
       </c>
-      <c r="F39" s="119">
+      <c r="F39" s="146">
         <v>1900</v>
       </c>
       <c r="G39" s="119" t="s">
@@ -18986,7 +22681,7 @@
       <c r="E40" t="s">
         <v>165</v>
       </c>
-      <c r="F40" s="119">
+      <c r="F40" s="146">
         <v>1096</v>
       </c>
       <c r="G40" s="119" t="s">
@@ -19135,7 +22830,7 @@
       <c r="E41" t="s">
         <v>165</v>
       </c>
-      <c r="F41" s="119">
+      <c r="F41" s="146">
         <v>1096</v>
       </c>
       <c r="G41" s="119" t="s">
@@ -19284,7 +22979,7 @@
       <c r="E42" t="s">
         <v>165</v>
       </c>
-      <c r="F42" s="119">
+      <c r="F42" s="146">
         <v>1096</v>
       </c>
       <c r="G42" s="119" t="s">
@@ -19433,7 +23128,7 @@
       <c r="E43" t="s">
         <v>165</v>
       </c>
-      <c r="F43" s="119">
+      <c r="F43" s="146">
         <v>310</v>
       </c>
       <c r="G43" s="119" t="s">
@@ -19580,7 +23275,7 @@
       <c r="E44" t="s">
         <v>165</v>
       </c>
-      <c r="F44" s="119">
+      <c r="F44" s="146">
         <v>4860</v>
       </c>
       <c r="G44" s="119" t="s">
@@ -19727,7 +23422,7 @@
       <c r="E45" t="s">
         <v>165</v>
       </c>
-      <c r="F45" s="119">
+      <c r="F45" s="146">
         <v>8850</v>
       </c>
       <c r="G45" s="119" t="s">
@@ -19874,7 +23569,7 @@
       <c r="E46" t="s">
         <v>165</v>
       </c>
-      <c r="F46" s="119">
+      <c r="F46" s="146">
         <v>228984.57</v>
       </c>
       <c r="G46" s="119" t="s">
@@ -20018,7 +23713,7 @@
       <c r="E47" t="s">
         <v>165</v>
       </c>
-      <c r="F47" s="119">
+      <c r="F47" s="146">
         <v>228984.57</v>
       </c>
       <c r="G47" s="119" t="s">
@@ -20146,7 +23841,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:49">
+    <row r="48" spans="1:49" ht="16.5">
       <c r="A48" t="s">
         <v>272</v>
       </c>
@@ -20162,7 +23857,7 @@
       <c r="E48" t="s">
         <v>165</v>
       </c>
-      <c r="F48" s="119">
+      <c r="F48" s="149">
         <v>228984.57</v>
       </c>
       <c r="G48" s="119" t="s">
